--- a/source_data/oecd_vat_gst_rates_ctt_trends.xlsx
+++ b/source_data/oecd_vat_gst_rates_ctt_trends.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\international-tax-competitiveness-index\source-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\international-tax-competitiveness-index\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2BD1679-8622-473F-A559-E1E2F0F73064}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19D5EDC-7846-4E5A-9A37-7A053340DC9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2018'!$A$1:$U$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2018'!$A$1:$V$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -588,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -742,6 +744,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,18 +776,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1113,80 +1118,81 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL54"/>
+  <dimension ref="A1:AM54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="1" customWidth="1"/>
-    <col min="7" max="9" width="5.42578125" style="1" customWidth="1"/>
-    <col min="10" max="12" width="5.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" style="1" customWidth="1"/>
-    <col min="14" max="19" width="5.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16" style="1" customWidth="1"/>
-    <col min="21" max="21" width="28.5703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="22" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="9" width="5.3984375" style="1" customWidth="1"/>
+    <col min="10" max="12" width="5.1328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.59765625" style="1" customWidth="1"/>
+    <col min="14" max="20" width="5.86328125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16" style="1" customWidth="1"/>
+    <col min="22" max="22" width="28.59765625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:39" s="2" customFormat="1" ht="14.65" x14ac:dyDescent="0.4">
+      <c r="A1" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-    </row>
-    <row r="2" spans="1:38" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+    </row>
+    <row r="2" spans="1:39" s="2" customFormat="1" ht="14.65" x14ac:dyDescent="0.4">
       <c r="B2" s="41" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="41"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="46"/>
       <c r="H2" s="10"/>
       <c r="I2" s="46"/>
@@ -1200,15 +1206,16 @@
       <c r="Q2" s="52"/>
       <c r="R2" s="52"/>
       <c r="S2" s="55"/>
-      <c r="T2" s="40" t="s">
+      <c r="T2" s="59"/>
+      <c r="U2" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="V2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="3"/>
-    </row>
-    <row r="3" spans="1:38" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W2" s="3"/>
+    </row>
+    <row r="3" spans="1:39" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -1228,13 +1235,14 @@
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="S3" s="55"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="5" t="s">
+      <c r="T3" s="59"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:38" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="13">
@@ -1288,10 +1296,13 @@
       <c r="S4" s="14">
         <v>2019</v>
       </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="13"/>
-    </row>
-    <row r="5" spans="1:38" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="T4" s="14">
+        <v>2020</v>
+      </c>
+      <c r="U4" s="15"/>
+      <c r="V4" s="13"/>
+    </row>
+    <row r="5" spans="1:39" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A5" s="16" t="s">
         <v>78</v>
       </c>
@@ -1349,14 +1360,17 @@
       <c r="S5" s="19">
         <v>10</v>
       </c>
-      <c r="T5" s="20">
+      <c r="T5" s="19">
+        <v>10</v>
+      </c>
+      <c r="U5" s="20">
         <v>0</v>
       </c>
-      <c r="U5" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V5" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
@@ -1414,14 +1428,17 @@
       <c r="S6" s="22">
         <v>20</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="T6" s="22">
+        <v>20</v>
+      </c>
+      <c r="U6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="U6" s="24">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V6" s="24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A7" s="16" t="s">
         <v>0</v>
       </c>
@@ -1479,14 +1496,17 @@
       <c r="S7" s="19">
         <v>21</v>
       </c>
-      <c r="T7" s="26" t="s">
+      <c r="T7" s="19">
+        <v>21</v>
+      </c>
+      <c r="U7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V7" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>50</v>
       </c>
@@ -1544,14 +1564,17 @@
       <c r="S8" s="28">
         <v>5</v>
       </c>
-      <c r="T8" s="30">
+      <c r="T8" s="28">
+        <v>5</v>
+      </c>
+      <c r="U8" s="30">
         <v>0</v>
       </c>
-      <c r="U8" s="24" t="s">
+      <c r="V8" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A9" s="16" t="s">
         <v>26</v>
       </c>
@@ -1609,14 +1632,17 @@
       <c r="S9" s="19">
         <v>19</v>
       </c>
-      <c r="T9" s="20" t="s">
-        <v>13</v>
+      <c r="T9" s="19">
+        <v>19</v>
       </c>
       <c r="U9" s="20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V9" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
@@ -1674,14 +1700,17 @@
       <c r="S10" s="28">
         <v>21</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="T10" s="28">
+        <v>21</v>
+      </c>
+      <c r="U10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="U10" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V10" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A11" s="16" t="s">
         <v>1</v>
       </c>
@@ -1739,14 +1768,17 @@
       <c r="S11" s="19">
         <v>25</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T11" s="19">
+        <v>25</v>
+      </c>
+      <c r="U11" s="20">
         <v>0</v>
       </c>
-      <c r="U11" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V11" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>35</v>
       </c>
@@ -1804,14 +1836,17 @@
       <c r="S12" s="28">
         <v>20</v>
       </c>
-      <c r="T12" s="30" t="s">
+      <c r="T12" s="28">
+        <v>20</v>
+      </c>
+      <c r="U12" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="U12" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V12" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A13" s="16" t="s">
         <v>2</v>
       </c>
@@ -1869,14 +1904,17 @@
       <c r="S13" s="31">
         <v>24</v>
       </c>
-      <c r="T13" s="20" t="s">
+      <c r="T13" s="31">
+        <v>24</v>
+      </c>
+      <c r="U13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="U13" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="V13" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" s="2" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="39" t="s">
         <v>49</v>
       </c>
@@ -1934,14 +1972,17 @@
       <c r="S14" s="28">
         <v>20</v>
       </c>
-      <c r="T14" s="30" t="s">
+      <c r="T14" s="28">
+        <v>20</v>
+      </c>
+      <c r="U14" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="U14" s="42" t="s">
+      <c r="V14" s="42" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:38" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A15" s="16" t="s">
         <v>3</v>
       </c>
@@ -1999,14 +2040,17 @@
       <c r="S15" s="19">
         <v>19</v>
       </c>
-      <c r="T15" s="20">
+      <c r="T15" s="19">
+        <v>19</v>
+      </c>
+      <c r="U15" s="20">
         <v>7</v>
       </c>
-      <c r="U15" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V15" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>51</v>
       </c>
@@ -2064,14 +2108,17 @@
       <c r="S16" s="21">
         <v>24</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="T16" s="21">
+        <v>24</v>
+      </c>
+      <c r="U16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="V16" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:25" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A17" s="16" t="s">
         <v>19</v>
       </c>
@@ -2129,14 +2176,17 @@
       <c r="S17" s="25">
         <v>27</v>
       </c>
-      <c r="T17" s="32" t="s">
+      <c r="T17" s="25">
+        <v>27</v>
+      </c>
+      <c r="U17" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="U17" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V17" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
@@ -2194,14 +2244,17 @@
       <c r="S18" s="21">
         <v>24</v>
       </c>
-      <c r="T18" s="34" t="s">
+      <c r="T18" s="21">
+        <v>24</v>
+      </c>
+      <c r="U18" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="U18" s="53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V18" s="53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A19" s="16" t="s">
         <v>5</v>
       </c>
@@ -2259,14 +2312,17 @@
       <c r="S19" s="19">
         <v>23</v>
       </c>
-      <c r="T19" s="26" t="s">
+      <c r="T19" s="19">
+        <v>23</v>
+      </c>
+      <c r="U19" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="U19" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V19" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>52</v>
       </c>
@@ -2324,14 +2380,17 @@
       <c r="S20" s="28">
         <v>17</v>
       </c>
-      <c r="T20" s="30">
+      <c r="T20" s="28">
+        <v>17</v>
+      </c>
+      <c r="U20" s="30">
         <v>0</v>
       </c>
-      <c r="U20" s="34">
+      <c r="V20" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A21" s="16" t="s">
         <v>6</v>
       </c>
@@ -2389,14 +2448,17 @@
       <c r="S21" s="19">
         <v>22</v>
       </c>
-      <c r="T21" s="20" t="s">
+      <c r="T21" s="19">
+        <v>22</v>
+      </c>
+      <c r="U21" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="U21" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V21" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>70</v>
       </c>
@@ -2454,14 +2516,17 @@
       <c r="S22" s="45">
         <v>8</v>
       </c>
-      <c r="T22" s="30" t="s">
-        <v>13</v>
+      <c r="T22" s="45">
+        <v>10</v>
       </c>
       <c r="U22" s="30" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V22" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A23" s="16" t="s">
         <v>16</v>
       </c>
@@ -2519,14 +2584,17 @@
       <c r="S23" s="31">
         <v>10</v>
       </c>
-      <c r="T23" s="20">
+      <c r="T23" s="31">
+        <v>10</v>
+      </c>
+      <c r="U23" s="20">
         <v>0</v>
       </c>
-      <c r="U23" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V23" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -2584,14 +2652,17 @@
       <c r="S24" s="45">
         <v>21</v>
       </c>
-      <c r="T24" s="11" t="s">
+      <c r="T24" s="45">
+        <v>21</v>
+      </c>
+      <c r="U24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U24" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V24" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A25" s="16" t="s">
         <v>59</v>
       </c>
@@ -2649,12 +2720,15 @@
       <c r="S25" s="31">
         <v>21</v>
       </c>
-      <c r="T25" s="32" t="s">
+      <c r="T25" s="31">
+        <v>21</v>
+      </c>
+      <c r="U25" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="U25" s="20"/>
-    </row>
-    <row r="26" spans="1:25" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V25" s="20"/>
+    </row>
+    <row r="26" spans="1:26" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A26" s="12" t="s">
         <v>7</v>
       </c>
@@ -2712,15 +2786,18 @@
       <c r="S26" s="45">
         <v>17</v>
       </c>
-      <c r="T26" s="34" t="s">
+      <c r="T26" s="45">
+        <v>17</v>
+      </c>
+      <c r="U26" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="U26" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y26" s="4"/>
-    </row>
-    <row r="27" spans="1:25" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V26" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z26" s="4"/>
+    </row>
+    <row r="27" spans="1:26" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A27" s="16" t="s">
         <v>71</v>
       </c>
@@ -2778,14 +2855,17 @@
       <c r="S27" s="19">
         <v>16</v>
       </c>
-      <c r="T27" s="20">
+      <c r="T27" s="19">
+        <v>16</v>
+      </c>
+      <c r="U27" s="20">
         <v>0</v>
       </c>
-      <c r="U27" s="20">
+      <c r="V27" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:25" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A28" s="12" t="s">
         <v>8</v>
       </c>
@@ -2843,14 +2923,17 @@
       <c r="S28" s="45">
         <v>21</v>
       </c>
-      <c r="T28" s="30">
+      <c r="T28" s="45">
+        <v>21</v>
+      </c>
+      <c r="U28" s="30">
         <v>9</v>
       </c>
-      <c r="U28" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V28" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A29" s="16" t="s">
         <v>9</v>
       </c>
@@ -2908,14 +2991,17 @@
       <c r="S29" s="19">
         <v>15</v>
       </c>
-      <c r="T29" s="20">
+      <c r="T29" s="19">
+        <v>15</v>
+      </c>
+      <c r="U29" s="20">
         <v>0</v>
       </c>
-      <c r="U29" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V29" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A30" s="12" t="s">
         <v>10</v>
       </c>
@@ -2973,14 +3059,17 @@
       <c r="S30" s="45">
         <v>25</v>
       </c>
-      <c r="T30" s="11" t="s">
+      <c r="T30" s="45">
+        <v>25</v>
+      </c>
+      <c r="U30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U30" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V30" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A31" s="16" t="s">
         <v>17</v>
       </c>
@@ -3038,14 +3127,17 @@
       <c r="S31" s="31">
         <v>23</v>
       </c>
-      <c r="T31" s="26" t="s">
+      <c r="T31" s="31">
+        <v>23</v>
+      </c>
+      <c r="U31" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="U31" s="50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V31" s="50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="12" t="s">
         <v>53</v>
       </c>
@@ -3103,14 +3195,17 @@
       <c r="S32" s="45">
         <v>23</v>
       </c>
-      <c r="T32" s="30" t="s">
+      <c r="T32" s="45">
+        <v>23</v>
+      </c>
+      <c r="U32" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="U32" s="11" t="s">
+      <c r="V32" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A33" s="16" t="s">
         <v>18</v>
       </c>
@@ -3168,14 +3263,17 @@
       <c r="S33" s="31">
         <v>20</v>
       </c>
-      <c r="T33" s="32">
+      <c r="T33" s="31">
+        <v>20</v>
+      </c>
+      <c r="U33" s="32">
         <v>10</v>
       </c>
-      <c r="U33" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V33" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A34" s="12" t="s">
         <v>27</v>
       </c>
@@ -3233,17 +3331,20 @@
       <c r="S34" s="45">
         <v>22</v>
       </c>
-      <c r="T34" s="34">
+      <c r="T34" s="45">
+        <v>22</v>
+      </c>
+      <c r="U34" s="34">
         <v>9.5</v>
       </c>
-      <c r="U34" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="V34" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V34" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="W34" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A35" s="16" t="s">
         <v>54</v>
       </c>
@@ -3301,14 +3402,17 @@
       <c r="S35" s="19">
         <v>21</v>
       </c>
-      <c r="T35" s="26" t="s">
+      <c r="T35" s="19">
+        <v>21</v>
+      </c>
+      <c r="U35" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="U35" s="20" t="s">
+      <c r="V35" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:27" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
         <v>11</v>
       </c>
@@ -3366,14 +3470,17 @@
       <c r="S36" s="45">
         <v>25</v>
       </c>
-      <c r="T36" s="30" t="s">
+      <c r="T36" s="45">
+        <v>25</v>
+      </c>
+      <c r="U36" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="U36" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V36" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A37" s="16" t="s">
         <v>12</v>
       </c>
@@ -3431,14 +3538,17 @@
       <c r="S37" s="19">
         <v>7.7</v>
       </c>
-      <c r="T37" s="20" t="s">
+      <c r="T37" s="19">
+        <v>7.7</v>
+      </c>
+      <c r="U37" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="U37" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V37" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A38" s="12" t="s">
         <v>20</v>
       </c>
@@ -3496,14 +3606,17 @@
       <c r="S38" s="45">
         <v>18</v>
       </c>
-      <c r="T38" s="11" t="s">
+      <c r="T38" s="45">
+        <v>18</v>
+      </c>
+      <c r="U38" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="U38" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V38" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A39" s="16" t="s">
         <v>31</v>
       </c>
@@ -3561,14 +3674,17 @@
       <c r="S39" s="19">
         <v>20</v>
       </c>
-      <c r="T39" s="20" t="s">
-        <v>25</v>
+      <c r="T39" s="19">
+        <v>20</v>
       </c>
       <c r="U39" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="V39" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" s="7" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A40" s="12" t="s">
         <v>21</v>
       </c>
@@ -3641,16 +3757,17 @@
         <f t="shared" si="2"/>
         <v>19.277142857142859</v>
       </c>
-      <c r="T40" s="11"/>
+      <c r="T40" s="45"/>
       <c r="U40" s="11"/>
-      <c r="V40" s="6"/>
+      <c r="V40" s="11"/>
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
-    </row>
-    <row r="41" spans="1:27" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB40" s="6"/>
+    </row>
+    <row r="41" spans="1:28" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="56" t="s">
         <v>69</v>
       </c>
@@ -3672,10 +3789,11 @@
       <c r="Q41" s="57"/>
       <c r="R41" s="57"/>
       <c r="S41" s="57"/>
-      <c r="T41" s="58"/>
-      <c r="U41" s="57"/>
-    </row>
-    <row r="42" spans="1:27" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T41" s="57"/>
+      <c r="U41" s="58"/>
+      <c r="V41" s="57"/>
+    </row>
+    <row r="42" spans="1:28" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="35" t="s">
         <v>30</v>
       </c>
@@ -3699,324 +3817,337 @@
       <c r="S42" s="36"/>
       <c r="T42" s="36"/>
       <c r="U42" s="36"/>
-    </row>
-    <row r="43" spans="1:27" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="61" t="s">
+      <c r="V42" s="36"/>
+    </row>
+    <row r="43" spans="1:28" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="61"/>
-      <c r="L43" s="61"/>
-      <c r="M43" s="61"/>
-      <c r="N43" s="61"/>
-      <c r="O43" s="61"/>
-      <c r="P43" s="61"/>
-      <c r="Q43" s="61"/>
-      <c r="R43" s="61"/>
-      <c r="S43" s="61"/>
-      <c r="T43" s="61"/>
-      <c r="U43" s="61"/>
-    </row>
-    <row r="44" spans="1:27" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="63" t="s">
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="66"/>
+      <c r="O43" s="66"/>
+      <c r="P43" s="66"/>
+      <c r="Q43" s="66"/>
+      <c r="R43" s="66"/>
+      <c r="S43" s="66"/>
+      <c r="T43" s="66"/>
+      <c r="U43" s="66"/>
+      <c r="V43" s="66"/>
+    </row>
+    <row r="44" spans="1:28" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="63"/>
-      <c r="M44" s="63"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="63"/>
-      <c r="P44" s="63"/>
-      <c r="Q44" s="63"/>
-      <c r="R44" s="63"/>
-      <c r="S44" s="63"/>
-      <c r="T44" s="63"/>
-      <c r="U44" s="63"/>
-    </row>
-    <row r="45" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="62" t="s">
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
+      <c r="S44" s="68"/>
+      <c r="T44" s="68"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="68"/>
+    </row>
+    <row r="45" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="62"/>
-      <c r="Q45" s="62"/>
-      <c r="R45" s="62"/>
-      <c r="S45" s="62"/>
-      <c r="T45" s="62"/>
-      <c r="U45" s="62"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A46" s="67" t="s">
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="67"/>
+      <c r="N45" s="67"/>
+      <c r="O45" s="67"/>
+      <c r="P45" s="67"/>
+      <c r="Q45" s="67"/>
+      <c r="R45" s="67"/>
+      <c r="S45" s="67"/>
+      <c r="T45" s="67"/>
+      <c r="U45" s="67"/>
+      <c r="V45" s="67"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A46" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="68"/>
-      <c r="M46" s="68"/>
-      <c r="N46" s="68"/>
-      <c r="O46" s="68"/>
-      <c r="P46" s="68"/>
-      <c r="Q46" s="68"/>
-      <c r="R46" s="68"/>
-      <c r="S46" s="68"/>
-      <c r="T46" s="68"/>
-      <c r="U46" s="68"/>
-    </row>
-    <row r="47" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="65" t="s">
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="63"/>
+      <c r="P46" s="63"/>
+      <c r="Q46" s="63"/>
+      <c r="R46" s="63"/>
+      <c r="S46" s="63"/>
+      <c r="T46" s="63"/>
+      <c r="U46" s="63"/>
+      <c r="V46" s="63"/>
+    </row>
+    <row r="47" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="66"/>
-      <c r="M47" s="66"/>
-      <c r="N47" s="66"/>
-      <c r="O47" s="66"/>
-      <c r="P47" s="66"/>
-      <c r="Q47" s="66"/>
-      <c r="R47" s="66"/>
-      <c r="S47" s="66"/>
-      <c r="T47" s="66"/>
-      <c r="U47" s="66"/>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A48" s="65" t="s">
+      <c r="B47" s="61"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="61"/>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="61"/>
+      <c r="R47" s="61"/>
+      <c r="S47" s="61"/>
+      <c r="T47" s="61"/>
+      <c r="U47" s="61"/>
+      <c r="V47" s="61"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A48" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="66"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="66"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="66"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="66"/>
-      <c r="N48" s="66"/>
-      <c r="O48" s="66"/>
-      <c r="P48" s="66"/>
-      <c r="Q48" s="66"/>
-      <c r="R48" s="66"/>
-      <c r="S48" s="66"/>
-      <c r="T48" s="66"/>
-      <c r="U48" s="66"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" s="67" t="s">
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="61"/>
+      <c r="T48" s="61"/>
+      <c r="U48" s="61"/>
+      <c r="V48" s="61"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A49" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="68"/>
-      <c r="M49" s="68"/>
-      <c r="N49" s="68"/>
-      <c r="O49" s="68"/>
-      <c r="P49" s="68"/>
-      <c r="Q49" s="68"/>
-      <c r="R49" s="68"/>
-      <c r="S49" s="68"/>
-      <c r="T49" s="68"/>
-      <c r="U49" s="68"/>
-    </row>
-    <row r="50" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="65" t="s">
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="63"/>
+      <c r="T49" s="63"/>
+      <c r="U49" s="63"/>
+      <c r="V49" s="63"/>
+    </row>
+    <row r="50" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="66"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="66"/>
-      <c r="N50" s="66"/>
-      <c r="O50" s="66"/>
-      <c r="P50" s="66"/>
-      <c r="Q50" s="66"/>
-      <c r="R50" s="66"/>
-      <c r="S50" s="66"/>
-      <c r="T50" s="66"/>
-      <c r="U50" s="66"/>
-    </row>
-    <row r="51" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="65" t="s">
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="61"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="61"/>
+      <c r="O50" s="61"/>
+      <c r="P50" s="61"/>
+      <c r="Q50" s="61"/>
+      <c r="R50" s="61"/>
+      <c r="S50" s="61"/>
+      <c r="T50" s="61"/>
+      <c r="U50" s="61"/>
+      <c r="V50" s="61"/>
+    </row>
+    <row r="51" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="65"/>
-      <c r="O51" s="65"/>
-      <c r="P51" s="65"/>
-      <c r="Q51" s="65"/>
-      <c r="R51" s="65"/>
-      <c r="S51" s="65"/>
-      <c r="T51" s="65"/>
-      <c r="U51" s="65"/>
-    </row>
-    <row r="52" spans="1:21" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="65" t="s">
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="60"/>
+      <c r="P51" s="60"/>
+      <c r="Q51" s="60"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="60"/>
+      <c r="T51" s="60"/>
+      <c r="U51" s="60"/>
+      <c r="V51" s="60"/>
+    </row>
+    <row r="52" spans="1:22" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="65"/>
-      <c r="M52" s="65"/>
-      <c r="N52" s="65"/>
-      <c r="O52" s="65"/>
-      <c r="P52" s="65"/>
-      <c r="Q52" s="65"/>
-      <c r="R52" s="65"/>
-      <c r="S52" s="65"/>
-      <c r="T52" s="65"/>
-      <c r="U52" s="65"/>
-    </row>
-    <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="65" t="s">
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="60"/>
+      <c r="P52" s="60"/>
+      <c r="Q52" s="60"/>
+      <c r="R52" s="60"/>
+      <c r="S52" s="60"/>
+      <c r="T52" s="60"/>
+      <c r="U52" s="60"/>
+      <c r="V52" s="60"/>
+    </row>
+    <row r="53" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B53" s="66"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="66"/>
-      <c r="H53" s="66"/>
-      <c r="I53" s="66"/>
-      <c r="J53" s="66"/>
-      <c r="K53" s="66"/>
-      <c r="L53" s="66"/>
-      <c r="M53" s="66"/>
-      <c r="N53" s="66"/>
-      <c r="O53" s="66"/>
-      <c r="P53" s="66"/>
-      <c r="Q53" s="66"/>
-      <c r="R53" s="66"/>
-      <c r="S53" s="66"/>
-      <c r="T53" s="66"/>
-      <c r="U53" s="66"/>
-    </row>
-    <row r="54" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="67" t="s">
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="61"/>
+      <c r="M53" s="61"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="61"/>
+      <c r="R53" s="61"/>
+      <c r="S53" s="61"/>
+      <c r="T53" s="61"/>
+      <c r="U53" s="61"/>
+      <c r="V53" s="61"/>
+    </row>
+    <row r="54" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="68"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="68"/>
-      <c r="I54" s="68"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="68"/>
-      <c r="M54" s="68"/>
-      <c r="N54" s="68"/>
-      <c r="O54" s="68"/>
-      <c r="P54" s="68"/>
-      <c r="Q54" s="68"/>
-      <c r="R54" s="68"/>
-      <c r="S54" s="68"/>
-      <c r="T54" s="68"/>
-      <c r="U54" s="68"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="63"/>
+      <c r="M54" s="63"/>
+      <c r="N54" s="63"/>
+      <c r="O54" s="63"/>
+      <c r="P54" s="63"/>
+      <c r="Q54" s="63"/>
+      <c r="R54" s="63"/>
+      <c r="S54" s="63"/>
+      <c r="T54" s="63"/>
+      <c r="U54" s="63"/>
+      <c r="V54" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A53:U53"/>
-    <mergeCell ref="A54:U54"/>
-    <mergeCell ref="A51:U51"/>
-    <mergeCell ref="A52:U52"/>
-    <mergeCell ref="A46:U46"/>
-    <mergeCell ref="A47:U47"/>
-    <mergeCell ref="A48:U48"/>
-    <mergeCell ref="A49:U49"/>
-    <mergeCell ref="A50:U50"/>
-    <mergeCell ref="V1:AL1"/>
+    <mergeCell ref="W1:AM1"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A43:U43"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="A44:U44"/>
-    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A43:V43"/>
+    <mergeCell ref="A45:V45"/>
+    <mergeCell ref="A44:V44"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A53:V53"/>
+    <mergeCell ref="A54:V54"/>
+    <mergeCell ref="A51:V51"/>
+    <mergeCell ref="A52:V52"/>
+    <mergeCell ref="A46:V46"/>
+    <mergeCell ref="A47:V47"/>
+    <mergeCell ref="A48:V48"/>
+    <mergeCell ref="A49:V49"/>
+    <mergeCell ref="A50:V50"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/source_data/oecd_vat_gst_rates_ctt_trends.xlsx
+++ b/source_data/oecd_vat_gst_rates_ctt_trends.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\easen\Dropbox (Tax Foundation)\international-tax-competitiveness-index\2021 Index\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\international-tax-competitiveness-index\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AC07328-83D3-4FD2-840B-71BAEE6C8F0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{594F65C9-80B3-46EB-8DB4-D9055411F1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="oecd_vat_gst_rates_ctt_trends" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
   <si>
     <t>Australia</t>
   </si>
@@ -889,6 +889,9 @@
       </rPr>
       <t>. Specific reduced VAT rates apply in the context of the Covid-19 pandemic.</t>
     </r>
+  </si>
+  <si>
+    <t>Costa Rica</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1077,8 +1080,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1086,11 +1098,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1372,43 +1387,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S76"/>
+  <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" customWidth="1"/>
-    <col min="18" max="18" width="16.265625" customWidth="1"/>
-    <col min="19" max="19" width="15.3984375" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-    </row>
-    <row r="2" spans="1:19" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+    </row>
+    <row r="2" spans="1:20" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4">
         <v>2005</v>
       </c>
@@ -1457,14 +1473,17 @@
       <c r="Q2" s="4">
         <v>2021</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="15">
+        <v>2022</v>
+      </c>
+      <c r="S2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1517,13 +1536,16 @@
         <v>10</v>
       </c>
       <c r="R3" s="1">
+        <v>10</v>
+      </c>
+      <c r="S3" s="1">
         <v>0</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>44</v>
       </c>
@@ -1575,14 +1597,17 @@
       <c r="Q4" s="2">
         <v>20</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="2">
+        <v>20</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T4" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>45</v>
       </c>
@@ -1634,14 +1659,17 @@
       <c r="Q5" s="3">
         <v>21</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>19</v>
+      <c r="R5" s="3">
+        <v>21</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>46</v>
       </c>
@@ -1694,13 +1722,16 @@
         <v>5</v>
       </c>
       <c r="R6" s="2">
+        <v>5</v>
+      </c>
+      <c r="S6" s="2">
         <v>0</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>1</v>
       </c>
@@ -1752,14 +1783,17 @@
       <c r="Q7" s="3">
         <v>19</v>
       </c>
-      <c r="R7" s="3" t="s">
-        <v>20</v>
+      <c r="R7" s="3">
+        <v>19</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>74</v>
       </c>
@@ -1811,2658 +1845,2849 @@
       <c r="Q8" s="2">
         <v>19</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" s="2">
+        <v>19</v>
+      </c>
+      <c r="S8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="T8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="2">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2">
+        <v>13</v>
+      </c>
+      <c r="J9" s="2">
+        <v>13</v>
+      </c>
+      <c r="K9" s="2">
+        <v>13</v>
+      </c>
+      <c r="L9" s="2">
+        <v>13</v>
+      </c>
+      <c r="M9" s="2">
+        <v>13</v>
+      </c>
+      <c r="N9" s="2">
+        <v>13</v>
+      </c>
+      <c r="O9" s="2">
+        <v>13</v>
+      </c>
+      <c r="P9" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>13</v>
+      </c>
+      <c r="R9" s="2">
+        <v>13</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="3">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3">
-        <v>19</v>
-      </c>
-      <c r="E9" s="3">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3">
-        <v>20</v>
-      </c>
-      <c r="G9" s="3">
-        <v>20</v>
-      </c>
-      <c r="H9" s="3">
-        <v>20</v>
-      </c>
-      <c r="I9" s="3">
-        <v>21</v>
-      </c>
-      <c r="J9" s="3">
-        <v>21</v>
-      </c>
-      <c r="K9" s="3">
-        <v>21</v>
-      </c>
-      <c r="L9" s="3">
-        <v>21</v>
-      </c>
-      <c r="M9" s="3">
-        <v>21</v>
-      </c>
-      <c r="N9" s="3">
-        <v>21</v>
-      </c>
-      <c r="O9" s="3">
-        <v>21</v>
-      </c>
-      <c r="P9" s="3">
-        <v>21</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>21</v>
-      </c>
-      <c r="R9" s="3" t="s">
+      <c r="B10" s="3">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3">
+        <v>20</v>
+      </c>
+      <c r="H10" s="3">
+        <v>20</v>
+      </c>
+      <c r="I10" s="3">
+        <v>21</v>
+      </c>
+      <c r="J10" s="3">
+        <v>21</v>
+      </c>
+      <c r="K10" s="3">
+        <v>21</v>
+      </c>
+      <c r="L10" s="3">
+        <v>21</v>
+      </c>
+      <c r="M10" s="3">
+        <v>21</v>
+      </c>
+      <c r="N10" s="3">
+        <v>21</v>
+      </c>
+      <c r="O10" s="3">
+        <v>21</v>
+      </c>
+      <c r="P10" s="3">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>21</v>
+      </c>
+      <c r="R10" s="3">
+        <v>21</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="T10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="2">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2">
-        <v>25</v>
-      </c>
-      <c r="G10" s="2">
-        <v>25</v>
-      </c>
-      <c r="H10" s="2">
-        <v>25</v>
-      </c>
-      <c r="I10" s="2">
-        <v>25</v>
-      </c>
-      <c r="J10" s="2">
-        <v>25</v>
-      </c>
-      <c r="K10" s="2">
-        <v>25</v>
-      </c>
-      <c r="L10" s="2">
-        <v>25</v>
-      </c>
-      <c r="M10" s="2">
-        <v>25</v>
-      </c>
-      <c r="N10" s="2">
-        <v>25</v>
-      </c>
-      <c r="O10" s="2">
-        <v>25</v>
-      </c>
-      <c r="P10" s="2">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>25</v>
-      </c>
-      <c r="R10" s="2">
+      <c r="B11" s="2">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2">
+        <v>25</v>
+      </c>
+      <c r="H11" s="2">
+        <v>25</v>
+      </c>
+      <c r="I11" s="2">
+        <v>25</v>
+      </c>
+      <c r="J11" s="2">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2">
+        <v>25</v>
+      </c>
+      <c r="L11" s="2">
+        <v>25</v>
+      </c>
+      <c r="M11" s="2">
+        <v>25</v>
+      </c>
+      <c r="N11" s="2">
+        <v>25</v>
+      </c>
+      <c r="O11" s="2">
+        <v>25</v>
+      </c>
+      <c r="P11" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>25</v>
+      </c>
+      <c r="R11" s="2">
+        <v>25</v>
+      </c>
+      <c r="S11" s="2">
         <v>0</v>
       </c>
-      <c r="S10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="T11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B12" s="3">
         <v>18</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="3">
         <v>18</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="3">
         <v>18</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="3">
         <v>18</v>
       </c>
-      <c r="F11" s="3">
-        <v>20</v>
-      </c>
-      <c r="G11" s="3">
-        <v>20</v>
-      </c>
-      <c r="H11" s="3">
-        <v>20</v>
-      </c>
-      <c r="I11" s="3">
-        <v>20</v>
-      </c>
-      <c r="J11" s="3">
-        <v>20</v>
-      </c>
-      <c r="K11" s="3">
-        <v>20</v>
-      </c>
-      <c r="L11" s="3">
-        <v>20</v>
-      </c>
-      <c r="M11" s="3">
-        <v>20</v>
-      </c>
-      <c r="N11" s="3">
-        <v>20</v>
-      </c>
-      <c r="O11" s="3">
-        <v>20</v>
-      </c>
-      <c r="P11" s="3">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>20</v>
-      </c>
-      <c r="R11" s="3" t="s">
+      <c r="F12" s="3">
+        <v>20</v>
+      </c>
+      <c r="G12" s="3">
+        <v>20</v>
+      </c>
+      <c r="H12" s="3">
+        <v>20</v>
+      </c>
+      <c r="I12" s="3">
+        <v>20</v>
+      </c>
+      <c r="J12" s="3">
+        <v>20</v>
+      </c>
+      <c r="K12" s="3">
+        <v>20</v>
+      </c>
+      <c r="L12" s="3">
+        <v>20</v>
+      </c>
+      <c r="M12" s="3">
+        <v>20</v>
+      </c>
+      <c r="N12" s="3">
+        <v>20</v>
+      </c>
+      <c r="O12" s="3">
+        <v>20</v>
+      </c>
+      <c r="P12" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>20</v>
+      </c>
+      <c r="R12" s="3">
+        <v>20</v>
+      </c>
+      <c r="S12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="T12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>22</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2">
         <v>22</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <v>22</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="2">
         <v>22</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13" s="2">
         <v>22</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <v>23</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H13" s="2">
         <v>23</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I13" s="2">
         <v>24</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J13" s="2">
         <v>24</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K13" s="2">
         <v>24</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L13" s="2">
         <v>24</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M13" s="2">
         <v>24</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N13" s="2">
         <v>24</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O13" s="2">
         <v>24</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P13" s="2">
         <v>24</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q13" s="2">
         <v>24</v>
       </c>
-      <c r="R12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="R13" s="2">
+        <v>24</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B14" s="3">
         <v>19.600000000000001</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="3">
         <v>19.600000000000001</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D14" s="3">
         <v>19.600000000000001</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="3">
         <v>19.600000000000001</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F14" s="3">
         <v>19.600000000000001</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G14" s="3">
         <v>19.600000000000001</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H14" s="3">
         <v>19.600000000000001</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I14" s="3">
         <v>19.600000000000001</v>
       </c>
-      <c r="J13" s="3">
-        <v>20</v>
-      </c>
-      <c r="K13" s="3">
-        <v>20</v>
-      </c>
-      <c r="L13" s="3">
-        <v>20</v>
-      </c>
-      <c r="M13" s="3">
-        <v>20</v>
-      </c>
-      <c r="N13" s="3">
-        <v>20</v>
-      </c>
-      <c r="O13" s="3">
-        <v>20</v>
-      </c>
-      <c r="P13" s="3">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>20</v>
-      </c>
-      <c r="R13" s="3" t="s">
+      <c r="J14" s="3">
+        <v>20</v>
+      </c>
+      <c r="K14" s="3">
+        <v>20</v>
+      </c>
+      <c r="L14" s="3">
+        <v>20</v>
+      </c>
+      <c r="M14" s="3">
+        <v>20</v>
+      </c>
+      <c r="N14" s="3">
+        <v>20</v>
+      </c>
+      <c r="O14" s="3">
+        <v>20</v>
+      </c>
+      <c r="P14" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>20</v>
+      </c>
+      <c r="R14" s="3">
+        <v>20</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
         <v>16</v>
       </c>
-      <c r="C14" s="2">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2">
-        <v>19</v>
-      </c>
-      <c r="E14" s="2">
-        <v>19</v>
-      </c>
-      <c r="F14" s="2">
-        <v>19</v>
-      </c>
-      <c r="G14" s="2">
-        <v>19</v>
-      </c>
-      <c r="H14" s="2">
-        <v>19</v>
-      </c>
-      <c r="I14" s="2">
-        <v>19</v>
-      </c>
-      <c r="J14" s="2">
-        <v>19</v>
-      </c>
-      <c r="K14" s="2">
-        <v>19</v>
-      </c>
-      <c r="L14" s="2">
-        <v>19</v>
-      </c>
-      <c r="M14" s="2">
-        <v>19</v>
-      </c>
-      <c r="N14" s="2">
-        <v>19</v>
-      </c>
-      <c r="O14" s="2">
-        <v>19</v>
-      </c>
-      <c r="P14" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>19</v>
-      </c>
-      <c r="R14" s="17">
+      <c r="C15" s="2">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2">
+        <v>19</v>
+      </c>
+      <c r="F15" s="2">
+        <v>19</v>
+      </c>
+      <c r="G15" s="2">
+        <v>19</v>
+      </c>
+      <c r="H15" s="2">
+        <v>19</v>
+      </c>
+      <c r="I15" s="2">
+        <v>19</v>
+      </c>
+      <c r="J15" s="2">
+        <v>19</v>
+      </c>
+      <c r="K15" s="2">
+        <v>19</v>
+      </c>
+      <c r="L15" s="2">
+        <v>19</v>
+      </c>
+      <c r="M15" s="2">
+        <v>19</v>
+      </c>
+      <c r="N15" s="2">
+        <v>19</v>
+      </c>
+      <c r="O15" s="2">
+        <v>19</v>
+      </c>
+      <c r="P15" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>19</v>
+      </c>
+      <c r="R15" s="2">
+        <v>19</v>
+      </c>
+      <c r="S15" s="17">
         <v>7</v>
       </c>
-      <c r="S14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="T15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B16" s="3">
         <v>18</v>
       </c>
-      <c r="C15" s="3">
-        <v>19</v>
-      </c>
-      <c r="D15" s="3">
-        <v>19</v>
-      </c>
-      <c r="E15" s="3">
-        <v>19</v>
-      </c>
-      <c r="F15" s="3">
-        <v>19</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="C16" s="3">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3">
+        <v>19</v>
+      </c>
+      <c r="E16" s="3">
+        <v>19</v>
+      </c>
+      <c r="F16" s="3">
+        <v>19</v>
+      </c>
+      <c r="G16" s="3">
         <v>23</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H16" s="3">
         <v>23</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I16" s="3">
         <v>23</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J16" s="3">
         <v>23</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K16" s="3">
         <v>23</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L16" s="3">
         <v>23</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M16" s="3">
         <v>24</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N16" s="3">
         <v>24</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O16" s="3">
         <v>24</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P16" s="3">
         <v>24</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q16" s="3">
         <v>24</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="R16" s="3">
+        <v>24</v>
+      </c>
+      <c r="S16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="T16" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="2">
-        <v>25</v>
-      </c>
-      <c r="C16" s="2">
-        <v>20</v>
-      </c>
-      <c r="D16" s="2">
-        <v>20</v>
-      </c>
-      <c r="E16" s="2">
-        <v>20</v>
-      </c>
-      <c r="F16" s="2">
-        <v>25</v>
-      </c>
-      <c r="G16" s="2">
-        <v>25</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="B17" s="2">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2">
+        <v>25</v>
+      </c>
+      <c r="G17" s="2">
+        <v>25</v>
+      </c>
+      <c r="H17" s="2">
         <v>27</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I17" s="2">
         <v>27</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J17" s="2">
         <v>27</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K17" s="2">
         <v>27</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L17" s="2">
         <v>27</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M17" s="2">
         <v>27</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N17" s="2">
         <v>27</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O17" s="2">
         <v>27</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P17" s="2">
         <v>27</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q17" s="2">
         <v>27</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="R17" s="2">
+        <v>27</v>
+      </c>
+      <c r="S17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="T17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" s="3">
         <v>24.5</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="3">
         <v>24.5</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D18" s="3">
         <v>24.5</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E18" s="3">
         <v>24.5</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F18" s="3">
         <v>25.5</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G18" s="3">
         <v>25.5</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H18" s="3">
         <v>25.5</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I18" s="3">
         <v>25.5</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J18" s="3">
         <v>25.5</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K18" s="3">
         <v>24</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L18" s="3">
         <v>24</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M18" s="3">
         <v>24</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N18" s="3">
         <v>24</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O18" s="3">
         <v>24</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P18" s="3">
         <v>24</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q18" s="3">
         <v>24</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="R18" s="3">
+        <v>24</v>
+      </c>
+      <c r="S18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+      <c r="T18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="2">
-        <v>21</v>
-      </c>
-      <c r="C18" s="2">
-        <v>21</v>
-      </c>
-      <c r="D18" s="2">
-        <v>21</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="B19" s="2">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2">
+        <v>21</v>
+      </c>
+      <c r="E19" s="2">
         <v>21.5</v>
       </c>
-      <c r="F18" s="2">
-        <v>21</v>
-      </c>
-      <c r="G18" s="2">
-        <v>21</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="F19" s="2">
+        <v>21</v>
+      </c>
+      <c r="G19" s="2">
+        <v>21</v>
+      </c>
+      <c r="H19" s="2">
         <v>23</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I19" s="2">
         <v>23</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J19" s="2">
         <v>23</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K19" s="2">
         <v>23</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L19" s="2">
         <v>23</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M19" s="2">
         <v>23</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N19" s="2">
         <v>23</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O19" s="2">
         <v>23</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P19" s="2">
         <v>23</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q19" s="2">
         <v>23</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="R19" s="2">
+        <v>23</v>
+      </c>
+      <c r="S19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S18" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+      <c r="T19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="3">
         <v>15.5</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D20" s="3">
         <v>15.5</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="3">
         <v>15.5</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F20" s="3">
         <v>16</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G20" s="3">
         <v>16</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H20" s="3">
         <v>16</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I20" s="3">
         <v>17</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J20" s="3">
         <v>18</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K20" s="3">
         <v>18</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L20" s="3">
         <v>17</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M20" s="3">
         <v>17</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N20" s="3">
         <v>17</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O20" s="3">
         <v>17</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P20" s="3">
         <v>17</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q20" s="3">
         <v>17</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R20" s="3">
+        <v>17</v>
+      </c>
+      <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="S19" s="3">
+      <c r="T20" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="2">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2">
-        <v>20</v>
-      </c>
-      <c r="D20" s="2">
-        <v>20</v>
-      </c>
-      <c r="E20" s="2">
-        <v>20</v>
-      </c>
-      <c r="F20" s="2">
-        <v>20</v>
-      </c>
-      <c r="G20" s="2">
-        <v>20</v>
-      </c>
-      <c r="H20" s="2">
-        <v>21</v>
-      </c>
-      <c r="I20" s="2">
-        <v>21</v>
-      </c>
-      <c r="J20" s="2">
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2">
+        <v>20</v>
+      </c>
+      <c r="H21" s="2">
+        <v>21</v>
+      </c>
+      <c r="I21" s="2">
+        <v>21</v>
+      </c>
+      <c r="J21" s="2">
         <v>22</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K21" s="2">
         <v>22</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L21" s="2">
         <v>22</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M21" s="2">
         <v>22</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N21" s="2">
         <v>22</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O21" s="2">
         <v>22</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P21" s="2">
         <v>22</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q21" s="2">
         <v>22</v>
       </c>
-      <c r="R20" s="2" t="s">
+      <c r="R21" s="3">
+        <v>22</v>
+      </c>
+      <c r="S21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="T21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B22" s="3">
         <v>5</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="3">
         <v>5</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D22" s="3">
         <v>5</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22" s="3">
         <v>5</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F22" s="3">
         <v>5</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G22" s="3">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H22" s="3">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I22" s="3">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J22" s="3">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K22" s="3">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L22" s="3">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M22" s="3">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N22" s="3">
         <v>8</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O22" s="3">
         <v>8</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P22" s="3">
         <v>10</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q22" s="3">
         <v>10</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R22" s="3">
+        <v>10</v>
+      </c>
+      <c r="S22" s="3">
         <v>8</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+      <c r="T22" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B23" s="2">
         <v>10</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C23" s="2">
         <v>10</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E23" s="2">
         <v>10</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F23" s="2">
         <v>10</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G23" s="2">
         <v>10</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H23" s="2">
         <v>10</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I23" s="2">
         <v>10</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J23" s="2">
         <v>10</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K23" s="2">
         <v>10</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L23" s="2">
         <v>10</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M23" s="2">
         <v>10</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N23" s="2">
         <v>10</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O23" s="2">
         <v>10</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P23" s="2">
         <v>10</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q23" s="2">
         <v>10</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R23" s="2">
+        <v>10</v>
+      </c>
+      <c r="S23" s="2">
         <v>0</v>
       </c>
-      <c r="S22" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="T23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C24" s="3">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D24" s="3">
         <v>18</v>
       </c>
-      <c r="E23" s="3">
-        <v>21</v>
-      </c>
-      <c r="F23" s="3">
-        <v>21</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="E24" s="3">
+        <v>21</v>
+      </c>
+      <c r="F24" s="3">
+        <v>21</v>
+      </c>
+      <c r="G24" s="3">
         <v>22</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H24" s="3">
         <v>22</v>
       </c>
-      <c r="I23" s="3">
-        <v>21</v>
-      </c>
-      <c r="J23" s="3">
-        <v>21</v>
-      </c>
-      <c r="K23" s="3">
-        <v>21</v>
-      </c>
-      <c r="L23" s="3">
-        <v>21</v>
-      </c>
-      <c r="M23" s="3">
-        <v>21</v>
-      </c>
-      <c r="N23" s="3">
-        <v>21</v>
-      </c>
-      <c r="O23" s="3">
-        <v>21</v>
-      </c>
-      <c r="P23" s="3">
-        <v>21</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>21</v>
-      </c>
-      <c r="R23" s="3" t="s">
+      <c r="I24" s="3">
+        <v>21</v>
+      </c>
+      <c r="J24" s="3">
+        <v>21</v>
+      </c>
+      <c r="K24" s="3">
+        <v>21</v>
+      </c>
+      <c r="L24" s="3">
+        <v>21</v>
+      </c>
+      <c r="M24" s="3">
+        <v>21</v>
+      </c>
+      <c r="N24" s="3">
+        <v>21</v>
+      </c>
+      <c r="O24" s="3">
+        <v>21</v>
+      </c>
+      <c r="P24" s="3">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>21</v>
+      </c>
+      <c r="R24" s="3">
+        <v>21</v>
+      </c>
+      <c r="S24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+      <c r="T24" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B25" s="2">
         <v>18</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C25" s="2">
         <v>18</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D25" s="2">
         <v>18</v>
       </c>
-      <c r="E24" s="2">
-        <v>19</v>
-      </c>
-      <c r="F24" s="2">
-        <v>21</v>
-      </c>
-      <c r="G24" s="2">
-        <v>21</v>
-      </c>
-      <c r="H24" s="2">
-        <v>21</v>
-      </c>
-      <c r="I24" s="2">
-        <v>21</v>
-      </c>
-      <c r="J24" s="2">
-        <v>21</v>
-      </c>
-      <c r="K24" s="2">
-        <v>21</v>
-      </c>
-      <c r="L24" s="2">
-        <v>21</v>
-      </c>
-      <c r="M24" s="2">
-        <v>21</v>
-      </c>
-      <c r="N24" s="2">
-        <v>21</v>
-      </c>
-      <c r="O24" s="2">
-        <v>21</v>
-      </c>
-      <c r="P24" s="2">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>21</v>
-      </c>
-      <c r="R24" s="2" t="s">
+      <c r="E25" s="2">
+        <v>19</v>
+      </c>
+      <c r="F25" s="2">
+        <v>21</v>
+      </c>
+      <c r="G25" s="2">
+        <v>21</v>
+      </c>
+      <c r="H25" s="2">
+        <v>21</v>
+      </c>
+      <c r="I25" s="2">
+        <v>21</v>
+      </c>
+      <c r="J25" s="2">
+        <v>21</v>
+      </c>
+      <c r="K25" s="2">
+        <v>21</v>
+      </c>
+      <c r="L25" s="2">
+        <v>21</v>
+      </c>
+      <c r="M25" s="2">
+        <v>21</v>
+      </c>
+      <c r="N25" s="2">
+        <v>21</v>
+      </c>
+      <c r="O25" s="2">
+        <v>21</v>
+      </c>
+      <c r="P25" s="2">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>21</v>
+      </c>
+      <c r="R25" s="2">
+        <v>21</v>
+      </c>
+      <c r="S25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S24" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+      <c r="T25" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B26" s="3">
         <v>15</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C26" s="3">
         <v>15</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D26" s="3">
         <v>15</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E26" s="3">
         <v>15</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F26" s="3">
         <v>15</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G26" s="3">
         <v>15</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H26" s="3">
         <v>15</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I26" s="3">
         <v>15</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J26" s="3">
         <v>15</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K26" s="3">
         <v>17</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L26" s="3">
         <v>17</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M26" s="3">
         <v>17</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N26" s="3">
         <v>17</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O26" s="3">
         <v>17</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P26" s="3">
         <v>17</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q26" s="3">
         <v>17</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="R26" s="3">
+        <v>17</v>
+      </c>
+      <c r="S26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="S25" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
+      <c r="T26" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B27" s="11">
         <v>15</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C27" s="11">
         <v>15</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>15</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="11">
         <v>15</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F27" s="11">
         <v>16</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G27" s="11">
         <v>16</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H27" s="11">
         <v>16</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I27" s="11">
         <v>16</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J27" s="11">
         <v>16</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K27" s="11">
         <v>16</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L27" s="11">
         <v>16</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M27" s="11">
         <v>16</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N27" s="11">
         <v>16</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O27" s="11">
         <v>16</v>
       </c>
-      <c r="P26" s="11">
+      <c r="P27" s="11">
         <v>16</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="Q27" s="11">
         <v>16</v>
       </c>
-      <c r="R26" s="11">
+      <c r="R27" s="11">
+        <v>16</v>
+      </c>
+      <c r="S27" s="11">
         <v>0</v>
       </c>
-      <c r="S26" s="11">
+      <c r="T27" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="9">
-        <v>19</v>
-      </c>
-      <c r="C27" s="9">
-        <v>19</v>
-      </c>
-      <c r="D27" s="9">
-        <v>19</v>
-      </c>
-      <c r="E27" s="9">
-        <v>19</v>
-      </c>
-      <c r="F27" s="9">
-        <v>19</v>
-      </c>
-      <c r="G27" s="9">
-        <v>19</v>
-      </c>
-      <c r="H27" s="9">
-        <v>19</v>
-      </c>
-      <c r="I27" s="9">
-        <v>21</v>
-      </c>
-      <c r="J27" s="9">
-        <v>21</v>
-      </c>
-      <c r="K27" s="9">
-        <v>21</v>
-      </c>
-      <c r="L27" s="9">
-        <v>21</v>
-      </c>
-      <c r="M27" s="9">
-        <v>21</v>
-      </c>
-      <c r="N27" s="9">
-        <v>21</v>
-      </c>
-      <c r="O27" s="9">
-        <v>21</v>
-      </c>
-      <c r="P27" s="9">
-        <v>21</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>21</v>
-      </c>
-      <c r="R27" s="9">
+      <c r="B28" s="9">
+        <v>19</v>
+      </c>
+      <c r="C28" s="9">
+        <v>19</v>
+      </c>
+      <c r="D28" s="9">
+        <v>19</v>
+      </c>
+      <c r="E28" s="9">
+        <v>19</v>
+      </c>
+      <c r="F28" s="9">
+        <v>19</v>
+      </c>
+      <c r="G28" s="9">
+        <v>19</v>
+      </c>
+      <c r="H28" s="9">
+        <v>19</v>
+      </c>
+      <c r="I28" s="9">
+        <v>21</v>
+      </c>
+      <c r="J28" s="9">
+        <v>21</v>
+      </c>
+      <c r="K28" s="9">
+        <v>21</v>
+      </c>
+      <c r="L28" s="9">
+        <v>21</v>
+      </c>
+      <c r="M28" s="9">
+        <v>21</v>
+      </c>
+      <c r="N28" s="9">
+        <v>21</v>
+      </c>
+      <c r="O28" s="9">
+        <v>21</v>
+      </c>
+      <c r="P28" s="9">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>21</v>
+      </c>
+      <c r="R28" s="9">
+        <v>21</v>
+      </c>
+      <c r="S28" s="9">
         <v>9</v>
       </c>
-      <c r="S27" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
+      <c r="T28" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B29" s="2">
         <v>12.5</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C29" s="2">
         <v>12.5</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D29" s="2">
         <v>12.5</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E29" s="2">
         <v>12.5</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F29" s="2">
         <v>12.5</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G29" s="2">
         <v>15</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H29" s="2">
         <v>15</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I29" s="2">
         <v>15</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J29" s="2">
         <v>15</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K29" s="2">
         <v>15</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L29" s="2">
         <v>15</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M29" s="2">
         <v>15</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N29" s="2">
         <v>15</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O29" s="2">
         <v>15</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P29" s="2">
         <v>15</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="Q29" s="2">
         <v>15</v>
       </c>
-      <c r="R28" s="2">
+      <c r="R29" s="2">
+        <v>15</v>
+      </c>
+      <c r="S29" s="2">
         <v>0</v>
       </c>
-      <c r="S28" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
+      <c r="T29" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="3">
-        <v>25</v>
-      </c>
-      <c r="C29" s="3">
-        <v>25</v>
-      </c>
-      <c r="D29" s="3">
-        <v>25</v>
-      </c>
-      <c r="E29" s="3">
-        <v>25</v>
-      </c>
-      <c r="F29" s="3">
-        <v>25</v>
-      </c>
-      <c r="G29" s="3">
-        <v>25</v>
-      </c>
-      <c r="H29" s="3">
-        <v>25</v>
-      </c>
-      <c r="I29" s="3">
-        <v>25</v>
-      </c>
-      <c r="J29" s="3">
-        <v>25</v>
-      </c>
-      <c r="K29" s="3">
-        <v>25</v>
-      </c>
-      <c r="L29" s="3">
-        <v>25</v>
-      </c>
-      <c r="M29" s="3">
-        <v>25</v>
-      </c>
-      <c r="N29" s="3">
-        <v>25</v>
-      </c>
-      <c r="O29" s="3">
-        <v>25</v>
-      </c>
-      <c r="P29" s="3">
-        <v>25</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>25</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="B30" s="3">
+        <v>25</v>
+      </c>
+      <c r="C30" s="3">
+        <v>25</v>
+      </c>
+      <c r="D30" s="3">
+        <v>25</v>
+      </c>
+      <c r="E30" s="3">
+        <v>25</v>
+      </c>
+      <c r="F30" s="3">
+        <v>25</v>
+      </c>
+      <c r="G30" s="3">
+        <v>25</v>
+      </c>
+      <c r="H30" s="3">
+        <v>25</v>
+      </c>
+      <c r="I30" s="3">
+        <v>25</v>
+      </c>
+      <c r="J30" s="3">
+        <v>25</v>
+      </c>
+      <c r="K30" s="3">
+        <v>25</v>
+      </c>
+      <c r="L30" s="3">
+        <v>25</v>
+      </c>
+      <c r="M30" s="3">
+        <v>25</v>
+      </c>
+      <c r="N30" s="3">
+        <v>25</v>
+      </c>
+      <c r="O30" s="3">
+        <v>25</v>
+      </c>
+      <c r="P30" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>25</v>
+      </c>
+      <c r="R30" s="3">
+        <v>25</v>
+      </c>
+      <c r="S30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
+      <c r="T30" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B31" s="2">
         <v>22</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C31" s="2">
         <v>22</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D31" s="2">
         <v>22</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E31" s="2">
         <v>22</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F31" s="2">
         <v>22</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G31" s="2">
         <v>23</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H31" s="2">
         <v>23</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I31" s="2">
         <v>23</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J31" s="2">
         <v>23</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K31" s="2">
         <v>23</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L31" s="2">
         <v>23</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M31" s="2">
         <v>23</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N31" s="2">
         <v>23</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O31" s="2">
         <v>23</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P31" s="2">
         <v>23</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q31" s="2">
         <v>23</v>
       </c>
-      <c r="R30" s="2" t="s">
+      <c r="R31" s="2">
+        <v>23</v>
+      </c>
+      <c r="S31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S30" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+      <c r="T31" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="3">
-        <v>19</v>
-      </c>
-      <c r="C31" s="3">
-        <v>21</v>
-      </c>
-      <c r="D31" s="3">
-        <v>21</v>
-      </c>
-      <c r="E31" s="3">
-        <v>20</v>
-      </c>
-      <c r="F31" s="3">
-        <v>20</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="B32" s="3">
+        <v>19</v>
+      </c>
+      <c r="C32" s="3">
+        <v>21</v>
+      </c>
+      <c r="D32" s="3">
+        <v>21</v>
+      </c>
+      <c r="E32" s="3">
+        <v>20</v>
+      </c>
+      <c r="F32" s="3">
+        <v>20</v>
+      </c>
+      <c r="G32" s="3">
         <v>23</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H32" s="3">
         <v>23</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I32" s="3">
         <v>23</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J32" s="3">
         <v>23</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K32" s="3">
         <v>23</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L32" s="3">
         <v>23</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M32" s="3">
         <v>23</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N32" s="3">
         <v>23</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O32" s="3">
         <v>23</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P32" s="3">
         <v>23</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="Q32" s="3">
         <v>23</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="R32" s="3">
+        <v>23</v>
+      </c>
+      <c r="S32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S31" s="3" t="s">
+      <c r="T32" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="2">
-        <v>19</v>
-      </c>
-      <c r="C32" s="2">
-        <v>19</v>
-      </c>
-      <c r="D32" s="2">
-        <v>19</v>
-      </c>
-      <c r="E32" s="2">
-        <v>19</v>
-      </c>
-      <c r="F32" s="2">
-        <v>19</v>
-      </c>
-      <c r="G32" s="2">
-        <v>20</v>
-      </c>
-      <c r="H32" s="2">
-        <v>20</v>
-      </c>
-      <c r="I32" s="2">
-        <v>20</v>
-      </c>
-      <c r="J32" s="2">
-        <v>20</v>
-      </c>
-      <c r="K32" s="2">
-        <v>20</v>
-      </c>
-      <c r="L32" s="2">
-        <v>20</v>
-      </c>
-      <c r="M32" s="2">
-        <v>20</v>
-      </c>
-      <c r="N32" s="2">
-        <v>20</v>
-      </c>
-      <c r="O32" s="2">
-        <v>20</v>
-      </c>
-      <c r="P32" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>20</v>
-      </c>
-      <c r="R32" s="2">
+      <c r="B33" s="2">
+        <v>19</v>
+      </c>
+      <c r="C33" s="2">
+        <v>19</v>
+      </c>
+      <c r="D33" s="2">
+        <v>19</v>
+      </c>
+      <c r="E33" s="2">
+        <v>19</v>
+      </c>
+      <c r="F33" s="2">
+        <v>19</v>
+      </c>
+      <c r="G33" s="2">
+        <v>20</v>
+      </c>
+      <c r="H33" s="2">
+        <v>20</v>
+      </c>
+      <c r="I33" s="2">
+        <v>20</v>
+      </c>
+      <c r="J33" s="2">
+        <v>20</v>
+      </c>
+      <c r="K33" s="2">
+        <v>20</v>
+      </c>
+      <c r="L33" s="2">
+        <v>20</v>
+      </c>
+      <c r="M33" s="2">
+        <v>20</v>
+      </c>
+      <c r="N33" s="2">
+        <v>20</v>
+      </c>
+      <c r="O33" s="2">
+        <v>20</v>
+      </c>
+      <c r="P33" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>20</v>
+      </c>
+      <c r="R33" s="2">
+        <v>20</v>
+      </c>
+      <c r="S33" s="2">
         <v>10</v>
       </c>
-      <c r="S32" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+      <c r="T33" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="3">
-        <v>20</v>
-      </c>
-      <c r="C33" s="3">
-        <v>20</v>
-      </c>
-      <c r="D33" s="3">
-        <v>20</v>
-      </c>
-      <c r="E33" s="3">
-        <v>20</v>
-      </c>
-      <c r="F33" s="3">
-        <v>20</v>
-      </c>
-      <c r="G33" s="3">
-        <v>20</v>
-      </c>
-      <c r="H33" s="3">
-        <v>20</v>
-      </c>
-      <c r="I33" s="3">
-        <v>20</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="B34" s="3">
+        <v>20</v>
+      </c>
+      <c r="C34" s="3">
+        <v>20</v>
+      </c>
+      <c r="D34" s="3">
+        <v>20</v>
+      </c>
+      <c r="E34" s="3">
+        <v>20</v>
+      </c>
+      <c r="F34" s="3">
+        <v>20</v>
+      </c>
+      <c r="G34" s="3">
+        <v>20</v>
+      </c>
+      <c r="H34" s="3">
+        <v>20</v>
+      </c>
+      <c r="I34" s="3">
+        <v>20</v>
+      </c>
+      <c r="J34" s="3">
         <v>22</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K34" s="3">
         <v>22</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L34" s="3">
         <v>22</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M34" s="3">
         <v>22</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N34" s="3">
         <v>22</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O34" s="3">
         <v>22</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P34" s="3">
         <v>22</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q34" s="3">
         <v>22</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="R34" s="3">
+        <v>22</v>
+      </c>
+      <c r="S34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
+      <c r="T34" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B35" s="2">
         <v>16</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C35" s="2">
         <v>16</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D35" s="2">
         <v>16</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E35" s="2">
         <v>16</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F35" s="2">
         <v>16</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G35" s="2">
         <v>18</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H35" s="2">
         <v>18</v>
       </c>
-      <c r="I34" s="2">
-        <v>21</v>
-      </c>
-      <c r="J34" s="2">
-        <v>21</v>
-      </c>
-      <c r="K34" s="2">
-        <v>21</v>
-      </c>
-      <c r="L34" s="2">
-        <v>21</v>
-      </c>
-      <c r="M34" s="2">
-        <v>21</v>
-      </c>
-      <c r="N34" s="2">
-        <v>21</v>
-      </c>
-      <c r="O34" s="2">
-        <v>21</v>
-      </c>
-      <c r="P34" s="2">
-        <v>21</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>21</v>
-      </c>
-      <c r="R34" s="2" t="s">
+      <c r="I35" s="2">
+        <v>21</v>
+      </c>
+      <c r="J35" s="2">
+        <v>21</v>
+      </c>
+      <c r="K35" s="2">
+        <v>21</v>
+      </c>
+      <c r="L35" s="2">
+        <v>21</v>
+      </c>
+      <c r="M35" s="2">
+        <v>21</v>
+      </c>
+      <c r="N35" s="2">
+        <v>21</v>
+      </c>
+      <c r="O35" s="2">
+        <v>21</v>
+      </c>
+      <c r="P35" s="2">
+        <v>21</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>21</v>
+      </c>
+      <c r="R35" s="2">
+        <v>21</v>
+      </c>
+      <c r="S35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="S34" s="2" t="s">
+      <c r="T35" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="3">
-        <v>25</v>
-      </c>
-      <c r="C35" s="3">
-        <v>25</v>
-      </c>
-      <c r="D35" s="3">
-        <v>25</v>
-      </c>
-      <c r="E35" s="3">
-        <v>25</v>
-      </c>
-      <c r="F35" s="3">
-        <v>25</v>
-      </c>
-      <c r="G35" s="3">
-        <v>25</v>
-      </c>
-      <c r="H35" s="3">
-        <v>25</v>
-      </c>
-      <c r="I35" s="3">
-        <v>25</v>
-      </c>
-      <c r="J35" s="3">
-        <v>25</v>
-      </c>
-      <c r="K35" s="3">
-        <v>25</v>
-      </c>
-      <c r="L35" s="3">
-        <v>25</v>
-      </c>
-      <c r="M35" s="3">
-        <v>25</v>
-      </c>
-      <c r="N35" s="3">
-        <v>25</v>
-      </c>
-      <c r="O35" s="3">
-        <v>25</v>
-      </c>
-      <c r="P35" s="3">
-        <v>25</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>25</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
+      <c r="B36" s="3">
+        <v>25</v>
+      </c>
+      <c r="C36" s="3">
+        <v>25</v>
+      </c>
+      <c r="D36" s="3">
+        <v>25</v>
+      </c>
+      <c r="E36" s="3">
+        <v>25</v>
+      </c>
+      <c r="F36" s="3">
+        <v>25</v>
+      </c>
+      <c r="G36" s="3">
+        <v>25</v>
+      </c>
+      <c r="H36" s="3">
+        <v>25</v>
+      </c>
+      <c r="I36" s="3">
+        <v>25</v>
+      </c>
+      <c r="J36" s="3">
+        <v>25</v>
+      </c>
+      <c r="K36" s="3">
+        <v>25</v>
+      </c>
+      <c r="L36" s="3">
+        <v>25</v>
+      </c>
+      <c r="M36" s="3">
+        <v>25</v>
+      </c>
+      <c r="N36" s="3">
+        <v>25</v>
+      </c>
+      <c r="O36" s="3">
+        <v>25</v>
+      </c>
+      <c r="P36" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>25</v>
+      </c>
+      <c r="R36" s="3">
+        <v>25</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B37" s="2">
         <v>7.6</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C37" s="2">
         <v>7.6</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D37" s="2">
         <v>7.6</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E37" s="2">
         <v>7.6</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F37" s="2">
         <v>7.6</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G37" s="2">
         <v>8</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H37" s="2">
         <v>8</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I37" s="2">
         <v>8</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J37" s="2">
         <v>8</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K37" s="2">
         <v>8</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L37" s="2">
         <v>8</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M37" s="2">
         <v>8</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N37" s="2">
         <v>7.7</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O37" s="2">
         <v>7.7</v>
       </c>
-      <c r="P36" s="2">
+      <c r="P37" s="2">
         <v>7.7</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="Q37" s="2">
         <v>7.7</v>
       </c>
-      <c r="R36" s="2" t="s">
+      <c r="R37" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="S37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="S36" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
+      <c r="T37" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B38" s="3">
         <v>18</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C38" s="3">
         <v>18</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D38" s="3">
         <v>18</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E38" s="3">
         <v>18</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F38" s="3">
         <v>18</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G38" s="3">
         <v>18</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H38" s="3">
         <v>18</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I38" s="3">
         <v>18</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J38" s="3">
         <v>18</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K38" s="3">
         <v>18</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L38" s="3">
         <v>18</v>
       </c>
-      <c r="M37" s="3">
+      <c r="M38" s="3">
         <v>18</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N38" s="3">
         <v>18</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O38" s="3">
         <v>18</v>
       </c>
-      <c r="P37" s="3">
+      <c r="P38" s="3">
         <v>18</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="Q38" s="3">
         <v>18</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="R38" s="3">
+        <v>18</v>
+      </c>
+      <c r="S38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S37" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
+      <c r="T38" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B39" s="11">
         <v>17.5</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C39" s="11">
         <v>17.5</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>17.5</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E39" s="11">
         <v>15</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F39" s="11">
         <v>17.5</v>
       </c>
-      <c r="G38" s="11">
-        <v>20</v>
-      </c>
-      <c r="H38" s="11">
-        <v>20</v>
-      </c>
-      <c r="I38" s="11">
-        <v>20</v>
-      </c>
-      <c r="J38" s="11">
-        <v>20</v>
-      </c>
-      <c r="K38" s="11">
-        <v>20</v>
-      </c>
-      <c r="L38" s="11">
-        <v>20</v>
-      </c>
-      <c r="M38" s="11">
-        <v>20</v>
-      </c>
-      <c r="N38" s="11">
-        <v>20</v>
-      </c>
-      <c r="O38" s="11">
-        <v>20</v>
-      </c>
-      <c r="P38" s="11">
-        <v>20</v>
-      </c>
-      <c r="Q38" s="11">
-        <v>20</v>
-      </c>
-      <c r="R38" s="11" t="s">
+      <c r="G39" s="11">
+        <v>20</v>
+      </c>
+      <c r="H39" s="11">
+        <v>20</v>
+      </c>
+      <c r="I39" s="11">
+        <v>20</v>
+      </c>
+      <c r="J39" s="11">
+        <v>20</v>
+      </c>
+      <c r="K39" s="11">
+        <v>20</v>
+      </c>
+      <c r="L39" s="11">
+        <v>20</v>
+      </c>
+      <c r="M39" s="11">
+        <v>20</v>
+      </c>
+      <c r="N39" s="11">
+        <v>20</v>
+      </c>
+      <c r="O39" s="11">
+        <v>20</v>
+      </c>
+      <c r="P39" s="11">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>20</v>
+      </c>
+      <c r="R39" s="11">
+        <v>20</v>
+      </c>
+      <c r="S39" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S38" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
+      <c r="T39" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="13">
-        <f>AVERAGE(B3:B38)</f>
-        <v>17.769444444444446</v>
-      </c>
-      <c r="C39" s="13">
-        <f t="shared" ref="C39:K39" si="0">AVERAGE(C3:C38)</f>
-        <v>17.727777777777778</v>
-      </c>
-      <c r="D39" s="13">
+      <c r="B40" s="13">
+        <f>AVERAGE(B3:B39)</f>
+        <v>17.640540540540542</v>
+      </c>
+      <c r="C40" s="13">
+        <f t="shared" ref="C40:K40" si="0">AVERAGE(C3:C39)</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D40" s="13">
         <f t="shared" si="0"/>
-        <v>17.700000000000003</v>
-      </c>
-      <c r="E39" s="13">
+        <v>17.572972972972973</v>
+      </c>
+      <c r="E40" s="13">
         <f t="shared" si="0"/>
-        <v>17.727777777777778</v>
-      </c>
-      <c r="F39" s="13">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F40" s="13">
         <f t="shared" si="0"/>
-        <v>18.130555555555556</v>
-      </c>
-      <c r="G39" s="13">
+        <v>17.991891891891893</v>
+      </c>
+      <c r="G40" s="13">
         <f t="shared" si="0"/>
-        <v>18.641666666666666</v>
-      </c>
-      <c r="H39" s="13">
+        <v>18.48918918918919</v>
+      </c>
+      <c r="H40" s="13">
         <f t="shared" si="0"/>
-        <v>18.780555555555555</v>
-      </c>
-      <c r="I39" s="13">
+        <v>18.624324324324323</v>
+      </c>
+      <c r="I40" s="13">
         <f t="shared" si="0"/>
-        <v>18.975000000000001</v>
-      </c>
-      <c r="J39" s="13">
+        <v>18.813513513513513</v>
+      </c>
+      <c r="J40" s="13">
         <f t="shared" si="0"/>
-        <v>19.097222222222221</v>
-      </c>
-      <c r="K39" s="13">
+        <v>18.932432432432432</v>
+      </c>
+      <c r="K40" s="13">
         <f t="shared" si="0"/>
-        <v>19.194444444444443</v>
-      </c>
-      <c r="L39" s="13">
-        <f t="shared" ref="L39" si="1">AVERAGE(L3:L38)</f>
-        <v>19.166666666666668</v>
-      </c>
-      <c r="M39" s="13">
-        <f t="shared" ref="M39" si="2">AVERAGE(M3:M38)</f>
-        <v>19.277777777777779</v>
-      </c>
-      <c r="N39" s="13">
-        <f t="shared" ref="N39" si="3">AVERAGE(N3:N38)</f>
-        <v>19.269444444444446</v>
-      </c>
-      <c r="O39" s="13">
-        <f t="shared" ref="O39" si="4">AVERAGE(O3:O38)</f>
-        <v>19.269444444444446</v>
-      </c>
-      <c r="P39" s="13">
-        <f t="shared" ref="P39:Q39" si="5">AVERAGE(P3:P38)</f>
-        <v>19.325000000000003</v>
-      </c>
-      <c r="Q39" s="13">
+        <v>19.027027027027028</v>
+      </c>
+      <c r="L40" s="13">
+        <f t="shared" ref="L40" si="1">AVERAGE(L3:L39)</f>
+        <v>19</v>
+      </c>
+      <c r="M40" s="13">
+        <f t="shared" ref="M40" si="2">AVERAGE(M3:M39)</f>
+        <v>19.108108108108109</v>
+      </c>
+      <c r="N40" s="13">
+        <f t="shared" ref="N40" si="3">AVERAGE(N3:N39)</f>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="O40" s="13">
+        <f t="shared" ref="O40" si="4">AVERAGE(O3:O39)</f>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="P40" s="13">
+        <f t="shared" ref="P40:R40" si="5">AVERAGE(P3:P39)</f>
+        <v>19.154054054054054</v>
+      </c>
+      <c r="Q40" s="13">
         <f t="shared" si="5"/>
-        <v>19.325000000000003</v>
-      </c>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-    </row>
-    <row r="40" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="24" t="s">
+        <v>19.154054054054054</v>
+      </c>
+      <c r="R40" s="13">
+        <f t="shared" si="5"/>
+        <v>19.154054054054054</v>
+      </c>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+    </row>
+    <row r="41" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="23" t="s">
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="21" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="20"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="21" t="s">
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="21"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-    </row>
-    <row r="44" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="18" t="s">
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="21"/>
+    </row>
+    <row r="45" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-    </row>
-    <row r="45" spans="1:19" ht="29.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="18" t="s">
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="19"/>
+    </row>
+    <row r="46" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="23" t="s">
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="19"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="21"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47" s="18" t="s">
+      <c r="B47" s="24"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48" s="18" t="s">
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="19"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-    </row>
-    <row r="49" spans="1:17" ht="56.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="18" t="s">
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="19"/>
+    </row>
+    <row r="50" spans="1:18" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-    </row>
-    <row r="50" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="18" t="s">
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="19"/>
+    </row>
+    <row r="51" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="18" t="s">
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="18"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A52" s="18" t="s">
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="19"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53" s="18" t="s">
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="19"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A54" s="18" t="s">
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="19"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-    </row>
-    <row r="55" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="18" t="s">
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="19"/>
+    </row>
+    <row r="56" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A56" s="18" t="s">
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="19"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="19"/>
-    </row>
-    <row r="57" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="18" t="s">
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="19"/>
+    </row>
+    <row r="58" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A58" s="18" t="s">
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="19"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A59" s="18" t="s">
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="19"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A60" s="21" t="s">
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="27"/>
+      <c r="R60" s="19"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="22"/>
-      <c r="Q60" s="22"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A61" s="18" t="s">
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="21"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A62" s="18" t="s">
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="27"/>
+      <c r="R62" s="19"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A63" s="18" t="s">
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="27"/>
+      <c r="R63" s="19"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="19"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="19"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A64" s="18" t="s">
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="27"/>
+      <c r="R64" s="19"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="19"/>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="19"/>
-    </row>
-    <row r="65" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="18" t="s">
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="27"/>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="19"/>
+    </row>
+    <row r="66" spans="1:18" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="19"/>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A66" s="18" t="s">
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="19"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A67" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="19"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A67" s="18" t="s">
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="27"/>
+      <c r="Q67" s="27"/>
+      <c r="R67" s="19"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A68" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="19"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A68" s="18" t="s">
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="27"/>
+      <c r="Q68" s="27"/>
+      <c r="R68" s="19"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A69" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-    </row>
-    <row r="69" spans="1:17" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="18" t="s">
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="27"/>
+      <c r="Q69" s="27"/>
+      <c r="R69" s="19"/>
+    </row>
+    <row r="70" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="19"/>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="19"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A70" s="18" t="s">
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="27"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="27"/>
+      <c r="Q70" s="27"/>
+      <c r="R70" s="19"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A71" s="21" t="s">
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="27"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="27"/>
+      <c r="Q71" s="27"/>
+      <c r="R71" s="19"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A72" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="22"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="22"/>
-      <c r="O71" s="22"/>
-      <c r="P71" s="22"/>
-      <c r="Q71" s="22"/>
-    </row>
-    <row r="72" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="18" t="s">
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="25"/>
+      <c r="R72" s="21"/>
+    </row>
+    <row r="73" spans="1:18" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="19"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A73" s="18" t="s">
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="27"/>
+      <c r="N73" s="27"/>
+      <c r="O73" s="27"/>
+      <c r="P73" s="27"/>
+      <c r="Q73" s="27"/>
+      <c r="R73" s="19"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A74" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19"/>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A74" s="18" t="s">
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="27"/>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="19"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A75" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19"/>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
-    </row>
-    <row r="75" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="18" t="s">
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="27"/>
+      <c r="M75" s="27"/>
+      <c r="N75" s="27"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="27"/>
+      <c r="Q75" s="27"/>
+      <c r="R75" s="19"/>
+    </row>
+    <row r="76" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19"/>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-    </row>
-    <row r="76" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="18" t="s">
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="27"/>
+      <c r="N76" s="27"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="27"/>
+      <c r="Q76" s="27"/>
+      <c r="R76" s="19"/>
+    </row>
+    <row r="77" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="19"/>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="27"/>
+      <c r="M77" s="27"/>
+      <c r="N77" s="27"/>
+      <c r="O77" s="27"/>
+      <c r="P77" s="27"/>
+      <c r="Q77" s="27"/>
+      <c r="R77" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A50:Q50"/>
-    <mergeCell ref="A41:Q41"/>
-    <mergeCell ref="A42:Q42"/>
-    <mergeCell ref="A43:Q43"/>
-    <mergeCell ref="A40:Q40"/>
-    <mergeCell ref="A44:Q44"/>
-    <mergeCell ref="A45:Q45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:Q47"/>
-    <mergeCell ref="A48:Q48"/>
-    <mergeCell ref="A49:Q49"/>
-    <mergeCell ref="A51:Q51"/>
-    <mergeCell ref="A52:Q52"/>
-    <mergeCell ref="A53:Q53"/>
+    <mergeCell ref="A74:Q74"/>
+    <mergeCell ref="A75:Q75"/>
+    <mergeCell ref="A76:Q76"/>
+    <mergeCell ref="A77:Q77"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A69:Q69"/>
+    <mergeCell ref="A70:Q70"/>
+    <mergeCell ref="A71:Q71"/>
+    <mergeCell ref="A72:Q72"/>
+    <mergeCell ref="A73:Q73"/>
+    <mergeCell ref="A64:Q64"/>
+    <mergeCell ref="A65:Q65"/>
+    <mergeCell ref="A66:Q66"/>
+    <mergeCell ref="A67:Q67"/>
+    <mergeCell ref="A68:Q68"/>
     <mergeCell ref="A60:Q60"/>
-    <mergeCell ref="A61:Q61"/>
-    <mergeCell ref="A62:Q62"/>
-    <mergeCell ref="A54:Q54"/>
+    <mergeCell ref="A63:Q63"/>
     <mergeCell ref="A55:Q55"/>
     <mergeCell ref="A56:Q56"/>
     <mergeCell ref="A57:Q57"/>
     <mergeCell ref="A58:Q58"/>
-    <mergeCell ref="A73:Q73"/>
-    <mergeCell ref="A74:Q74"/>
-    <mergeCell ref="A75:Q75"/>
-    <mergeCell ref="A76:Q76"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A68:Q68"/>
-    <mergeCell ref="A69:Q69"/>
-    <mergeCell ref="A70:Q70"/>
-    <mergeCell ref="A71:Q71"/>
-    <mergeCell ref="A72:Q72"/>
-    <mergeCell ref="A63:Q63"/>
-    <mergeCell ref="A64:Q64"/>
-    <mergeCell ref="A65:Q65"/>
-    <mergeCell ref="A66:Q66"/>
-    <mergeCell ref="A67:Q67"/>
     <mergeCell ref="A59:Q59"/>
+    <mergeCell ref="A52:Q52"/>
+    <mergeCell ref="A53:Q53"/>
+    <mergeCell ref="A54:Q54"/>
+    <mergeCell ref="A61:Q61"/>
+    <mergeCell ref="A62:Q62"/>
+    <mergeCell ref="A51:Q51"/>
+    <mergeCell ref="A42:Q42"/>
+    <mergeCell ref="A43:Q43"/>
+    <mergeCell ref="A44:Q44"/>
+    <mergeCell ref="A41:Q41"/>
+    <mergeCell ref="A45:Q45"/>
+    <mergeCell ref="A46:Q46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:Q48"/>
+    <mergeCell ref="A49:Q49"/>
+    <mergeCell ref="A50:Q50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/source_data/oecd_vat_gst_rates_ctt_trends.xlsx
+++ b/source_data/oecd_vat_gst_rates_ctt_trends.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\international-tax-competitiveness-index\source_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexanderMengden\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9746026-7411-4C57-BFE1-34A2D9238A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78F48C8-5FDF-4C4E-900F-C67C760B66D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,36 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={8295ACC6-A58B-48F1-A5C6-E29DBD2CCBAD}</author>
+    <author>tc={608F8682-E7EB-4EAE-9183-615807906989}</author>
+  </authors>
+  <commentList>
+    <comment ref="V12" authorId="0" shapeId="0" xr:uid="{8295ACC6-A58B-48F1-A5C6-E29DBD2CCBAD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ab 2025 - deshalb Abweichung zu OECD 2024</t>
+      </text>
+    </comment>
+    <comment ref="V33" authorId="1" shapeId="0" xr:uid="{608F8682-E7EB-4EAE-9183-615807906989}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ab 2025 - deshalb Abweichung zu OECD 2024
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="114">
   <si>
     <t>Australia</t>
   </si>
@@ -90,12 +118,6 @@
     <t>0.0/5.0</t>
   </si>
   <si>
-    <t>10.0/15.0</t>
-  </si>
-  <si>
-    <t>0.0/9.0</t>
-  </si>
-  <si>
     <t>0.0/10.0/14.0</t>
   </si>
   <si>
@@ -108,12 +130,6 @@
     <t>6.0/13.0</t>
   </si>
   <si>
-    <t>4.0/ 9.0/17.0</t>
-  </si>
-  <si>
-    <t>5.0/18.0</t>
-  </si>
-  <si>
     <t>0.0/11.0</t>
   </si>
   <si>
@@ -123,33 +139,18 @@
     <t>4.0/5.0/10.0</t>
   </si>
   <si>
-    <t>5.0/12.0</t>
-  </si>
-  <si>
     <t>5.0/9.0</t>
   </si>
   <si>
     <t>3.0/8.0/14.0</t>
   </si>
   <si>
-    <t>0.0/12.0/15.0</t>
-  </si>
-  <si>
     <t>5.0/8.0</t>
   </si>
   <si>
-    <t>4.0/9.0/18.0 &amp; 5.0/12.0/22.0</t>
-  </si>
-  <si>
     <t>5.0/9.5</t>
   </si>
   <si>
-    <t>4.0/10.0</t>
-  </si>
-  <si>
-    <t>0.0/2.5/3.7</t>
-  </si>
-  <si>
     <t>Austria*</t>
   </si>
   <si>
@@ -198,9 +199,6 @@
     <t>Sweden*</t>
   </si>
   <si>
-    <t>0.0/3.0/7.0/9.5/15.0/20.0 &amp; 0.0 to10.0</t>
-  </si>
-  <si>
     <t>Japan</t>
   </si>
   <si>
@@ -208,9 +206,6 @@
   </si>
   <si>
     <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>1.0/2.0/4.0</t>
   </si>
   <si>
     <t>Türkiye*</t>
@@ -231,13 +226,312 @@
     </r>
   </si>
   <si>
-    <t>Historical data on VAT rates is available in the OECD Tax Database</t>
-  </si>
-  <si>
-    <t>2. Reduced VAT rates and specific regional VAT rates are those applicable as at 1 September 2023. Reduced VAT rates include zero-rates applicable to domestic supplies (i.e. an exemption with right to deduct input tax). They do not include zero-rated exports or other supplies subject to similar treatment such as international transport or supplies to embassies, international organisations and diplomatic missions. Reduced VAT rates in italics and between brackets indicate temporary reductions of the reduced VAT rates typically in the context of the COVID 19 pandemic or to counter rising energy costs (i.e. a specific temporary reduced rate created for the circumstance and only applicable to certain commodities in the context of the COVID 19 pandemic or to counter rising energy costs.). On the other hand, the temporary extension of the scope of existing reduced VAT rates to certain categories of products is not indicated in this table. Details on the application of reduced rates are included in Country notes below.</t>
-  </si>
-  <si>
     <t>* Country notes:</t>
+  </si>
+  <si>
+    <t>7.0/0.0</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>1.0/10.0</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Switzerland*</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t>PWC</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Standard 22%, Reduced rates 0%, 5%, 9%</t>
+  </si>
+  <si>
+    <t>Reduced rates 18%, 5%, 0%</t>
+  </si>
+  <si>
+    <t>Reduced rates 0%, 9%, 13,5%</t>
+  </si>
+  <si>
+    <t>Standard (2025) 18%</t>
+  </si>
+  <si>
+    <t>Standard 17%</t>
+  </si>
+  <si>
+    <t>Regional rates 22%, 16% &amp; 12%, 9%, 4%</t>
+  </si>
+  <si>
+    <t>Standard (2025) 23% Reduced Rates (2025) 19%, 5%</t>
+  </si>
+  <si>
+    <t>Standard 25.5%, Reduced rates 10%, 14%, 0%</t>
+  </si>
+  <si>
+    <t>reduced rates 13, 6, 4</t>
+  </si>
+  <si>
+    <t>Standard 8,1% Reduced rate 0, 2,6%, 3,8%</t>
+  </si>
+  <si>
+    <t>Reduced rates 0, 12%</t>
+  </si>
+  <si>
+    <t>(2025) Reduced rates 15, 12, 11.11, 0</t>
+  </si>
+  <si>
+    <t>reduced rates 1, 2, 4, 0.5</t>
+  </si>
+  <si>
+    <t>0/12.0</t>
+  </si>
+  <si>
+    <t>(2024) Standard 22%, (2025) Standard 24%, Reduced rates 0%, 13%, 9% (2025)</t>
+  </si>
+  <si>
+    <t>0.0/9.0/13.0</t>
+  </si>
+  <si>
+    <t>0/5.0/18.0</t>
+  </si>
+  <si>
+    <t>4.0/9.0/12.0/16.0/22.0</t>
+  </si>
+  <si>
+    <t>5.0/19</t>
+  </si>
+  <si>
+    <t>0.0/2.6/3.8</t>
+  </si>
+  <si>
+    <t>Bloomberg</t>
+  </si>
+  <si>
+    <t>0/4.0/10.0</t>
+  </si>
+  <si>
+    <t>0/4.0/6.0/13.0</t>
+  </si>
+  <si>
+    <t>3.0/4.0/9.0/17.0</t>
+  </si>
+  <si>
+    <t>0/1.0/2.0/4.0</t>
+  </si>
+  <si>
+    <t>(31.08.2024) Standard 25.5%, Reduced rates 10%, 14%, 0%</t>
+  </si>
+  <si>
+    <t>5.0/12.0</t>
+  </si>
+  <si>
+    <t>Reduced rates  5%, 12%</t>
+  </si>
+  <si>
+    <t>Reduced rates 5%, 12%</t>
+  </si>
+  <si>
+    <t>0.0/12.0/15.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0/0.5/1.0/3.0/4.0/5.0/6.0/7.0/8.0/9.0/ 
+9.5/10.0/15.0/20.0 </t>
+  </si>
+  <si>
+    <t>Source: National delegates</t>
+  </si>
+  <si>
+    <t>1. Yearly data: the standard VAT rates shown in the table are rates applicable on 1 January of each year. VAT rates in italics between brackets indicate a temporary VAT rate reduction during the year, For 
+the purpose of this table, a rate is considered temporary when it si not applied to the entire year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Reduced VAT rates and specific regional VAT rates are those applicable as of 1 January 2024. Reduced VAT rates include zero-rates applicable to domestic supplies (i.e. an exemption with right to 
+deduct input tax). They do not include zero-rated exports or other supplies subject to similar treatment such as international transport or supplies to embassies, international organisations and diplomatic 
+missions. Reduced VAT rates in italics and between brackets indicate temporary reductions of the VAT rates typically to address specific challenges, incl. in the context of the Covid 19 pandemic or to 
+counter rising energy costs (i.e. a specific temporary reduced rate created for the circumstance and only applicable to certain commodities e.g. in the context of the Covid 19 pandemic, to counter rising 
+energy costs or alleviate the consequences of natural disasters). Temporary extensions of the scope of existing reduced VAT rates to certain categories of products is not indicated in this table. Details on 
+the application of reduced rates are included in Country notes to Annex Table 2.A.2. 
+VAT rate changes or adoption of new VAT rates introduced after 1 January 2024 are mentioned in the Country notes to this table, depending on the availability of information at the time of finalisation of this 
+publication. Historical data on VAT rates is available in the OECD Tax Database 
+VAT rates changes or adoption of new VAT rates introduced after 1 January 2024 are mentioned in the Country notes to this table.  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Austria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">*. A standard rate of 19% applies in Jungholz and Mittelberg. A specific temporary zero VAT 
+rate applies to the supply and installation of solar panels – See country note to Annex Table 2.A.2. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Canada</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. The following provinces have harmonised their provincial sales taxes with the federal Goods 
+and Services Tax and therefore levy a GST/HST at the following rates: New Brunswick, Newfoundland 
+and Labrador, Nova Scotia, Prince Edward Island: 15%; and Ontario: 13%. Québec applies GST at a 
+rate of 5% and Québec Sales Tax at a rate of 9.975% (applied on the same tax base as the GST). With 
+the exception of Canada’s territories (Yukon, Northwest Territories and Nunavut) and the province of 
+Alberta, other Canadian provinces apply a provincial sales tax to certain goods and services in addition 
+to the federal GST. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Colombia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.The rate of 0% applies, among others, to hygiene products, bicycles, bikes, clothes, 
+medicine, and construction materials destined to final consumers in the departments of Amazonas, 
+Guainía, Guaviare, Vaupés and Vichada. The rate of 5% is applicable to some goods and services such 
+as coffee, corn used in industrial processes, some assets used in the farming industry and some health
+related insurance services, and it is not limited to a specific geographical area of the country.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Finland</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. On 1 September 2024, the standard VAT rate increased from 24% to 25.5%. The reduced 
+rates of 10% and 14% remain unchanged. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>France*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. Rates of 0.9%; 2.1%; 10.0%; 13.0% and 20.0% apply in Corsica; rates of 1.05%; 1.75%; 2.1% 
+and 8.5% apply to overseas departments (DOM) excluding French Guyana and Mayotte. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Greece*. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Specific regional rates of 3.0%, 4.0%; 9.0% and 17.0% apply in the islands of Leros, Lesbos, 
+Kos, Samos and Chios and the decision to reduce the rates is automatically revoked 3 months from the 
+closure of Reception and Identification Centres and Temporary Reception / Hosting Structures and 
+Closed Controlled Structures for refugees. </t>
+    </r>
   </si>
   <si>
     <r>
@@ -257,7 +551,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> The rate of 0% applies when an Eilat resident dealer buys goods from Eilat non-residents. Supplies made by an Eilat resident supplier (to be consumed in Eilat) are exempt from VAT</t>
+      <t xml:space="preserve"> The rate of 0% applies when an Eilat resident dealer buys goods from Eilat non-residents. 
+Supplies made by an Eilat resident supplier (to be consumed in Eilat) are exempt from VAT. </t>
     </r>
   </si>
   <si>
@@ -278,52 +573,9 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>*. Temporary reduced rates related to the Covid-19 pandemic: a rate of 0% applies to imports of certain goods needed to combat the Covid-19 pandemic from 1 January until 30 June 2022. Temporary rate reduction to combat inflation: from 1 January to 31 December 2023 the standard VAT is lowered from 17% to 16 %; the intermediate rate is lowered from 14% to 13 %; and the reduced rate is lowered from 8% to 7 % (the super-reduced rate of 3 % remains unchanged).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Member States of the European Union</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> are subject to common VAT rules. According to the European Commission Decision (EU) 2021/2313 on 22 December 2021, the exemption from import duties and VAT on the imports of goods intended for distribution free of charge by the relevant bodies and organisations to the persons affected by or at risk from COVID-19 or involved in combating the COVID-19 outbreak was extended from 1 January 2022 to 30 June 2022 for 23 EU Member States, at their request. This Decision is further extended until end 2022 for 5 EU Member States. Are also exempt from VAT the imports of goods and purchases of goods and services made by the European Commission or a European institution, in execution of tasks they have been entrusted with in the objective of fighting the Covid pandemic-19. On 5 April 2022, the EU Council adopted a change in the EU VAT Directive providing Member States more freedom regarding the use of reduced VAT rates, including the use of domestic zero rates for essential products such as food, pharmaceuticals and products for medical use. Most country-specific rates (i.e., derogations) will become available to all Member States. On the other hand, environmentally harmful goods such as fossil fuels and chemical fertilisers/pesticides will be excluded from the reduced rates as of 1 January 2030 and 1 January 2032, respectively. As of 1 July 2022, a zero rate will also apply to supplies made for the benefit of the armed forces of the Member States when they are assigned "to a defence effort carried out with a view to implementing an activity of the Union within the framework of the common security and defence policy” similar to what is already applicable for NATO armed forces.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Austria</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>*. A standard rate of 19% applies in Jungholtz and Mittleberg.</t>
+      <t xml:space="preserve">*. From 1 January to 31 December 2023 the standard VAT was lowered from 17% to 16 
+%; the intermediate rate was lowered from 14% to 13 %; and the reduced rate was lowered from 8% to 
+7 % (the super-reduced rate of 3 % remained unchanged) to combat inflation. </t>
     </r>
   </si>
   <si>
@@ -344,20 +596,22 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>. A reduced VAT rate of 8% applies in the northern border region (Ensenada, Playas de Rosarito, San Quintin, San Felipe, Tijuana, Tecate and Mexicali in the state of Baja California; San Luis Río Colorado, Puerto Peñasco, General Plutarco Elías Calles, Caborca, Altar, Sáric, Nogales, Santa Cruz, Cananea, Naco and Agua Prieta in the state of Sonora; Janos, Ascensión, Juárez, Praxedis G. Guerrero, Guadalupe, Coyame del Sotol, Ojinaga and Manuel Benavides in the state of Chihuahua; Ocampo, Acuña, Zaragoza, Jiménez, Piedras Negras, Nava, Guerrero and Hidalgo in the state of Coahuila de Zaragoza; Anáhuac in the state of Nuevo León; and Nuevo Laredo, Guerrero, Mier, Miguel Alemán, Camargo, Gustavo Díaz Ordaz, Reynosa, Río Bravo, Valle Hermoso and Matamoros in the state of Tamaulipas) from 1 January 2019 until 31 December 2024. Furthermore, it applies in the southern border region (Calakmul and  Candelaria in the state of Campeche; Balancán and Tenosique in the state of Tabasco; Ocosingo, Palenque, Marqués de Comillas, Benemérito de las Américas, Amatenango de la Frontera, Frontera Comalapa, La Trinitaria, Maravilla Tenejapa, Las Margaritas, Suchiate, Frontera Hidalgo, Metapa, Tuxtla Chico, Unión Juárez, Cacahoatán, Tapachula, Motozintla and Mazapa de Madero in the state of Chiapas; and Othón P. Blanco in the state of Quintana Roo) from 1 January 2021 until 31 December 2024</t>
+      <t>. A reduced VAT rate of 8% applies in the northern border region (Ensenada, Playas de 
+Rosarito, San Quintin, San Felipe, Tijuana, Tecate and Mexicali in the state of Baja California; San Luis 
+Río Colorado, Puerto Peñasco, General Plutarco Elías Calles, Caborca, Altar, Sáric, Nogales, Santa 
+Cruz, Cananea, Naco and Agua Prieta in the state of Sonora; Janos, Ascensión, Juárez, Praxedis G. 
+Guerrero, Guadalupe, Coyame del Sotol, Ojinaga and Manuel Benavides in the state of Chihuahua; 
+Ocampo, Acuña, Zaragoza, Jiménez, Piedras Negras, Nava, Guerrero and Hidalgo in the state of 
+Coahuila de Zaragoza; Anáhuac in the state of Nuevo León; and Nuevo Laredo, Guerrero, Mier, Miguel 
+Alemán, Camargo, Gustavo Díaz Ordaz, Reynosa, Río Bravo, Valle Hermoso and Matamoros in the 
+state of Tamaulipas) from 1 January 2019 until 31 December 2024. Furthermore, it applies in the 
+southern border region (Calakmul and  Candelaria in the state of Campeche; Balancán and Tenosique 
+in the state of Tabasco; Ocosingo, Palenque, Marqués de Comillas, Benemérito de las Américas, 
+Amatenango de la Frontera, Frontera Comalapa, La Trinitaria, Maravilla Tenejapa, Las Margaritas, 
+Suchiate, Frontera Hidalgo, Metapa, Tuxtla Chico, Unión Juárez, Cacahoatán, Tapachula, Motozintla 
+and Mazapa de Madero in the state of Chiapas; and Othón P. Blanco in the state of Quintana Roo) 
+from 1 January 2021 until 31 December 2024.</t>
     </r>
-  </si>
-  <si>
-    <t>1. Yearly data: the standard VAT rates shown in the table are rates applicable on 1 January of each year, except for the year 2023 where rates are those applicable as at 1 September 2023. VAT rates in italics between brackets indicate a temporary VAT rate reduction during the year. For the purpose of this table, a rate is considered temporary when it is not applied to the entire year.</t>
-  </si>
-  <si>
-    <t>7.0/0.0</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Source: National delegates - position as at 1  September 2023</t>
   </si>
   <si>
     <r>
@@ -368,7 +622,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Greece</t>
+      <t>Poland.</t>
     </r>
     <r>
       <rPr>
@@ -377,14 +631,9 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>*. Specific regional rates of 4.0%; 9.0% and 17.0% apply in the islands of Leros, Lesbos, Kos, Samos and Chios and the decision to reduce the rates is automatically revoked 3 months from the closure of Reception and Identification Centres and Temporary Reception / Hosting Structures and Closed Controlled Structures for refugees. A rate of 0% also applies to the supply of COVID-19 vaccines until 31 December 2023. Sanitary products essential for the protection of public health during the COVID-19 pandemic (masks, gloves, antiseptic solutions, antiseptic wipes and other antiseptic preparations, etc.) are subject to the reduced rate of 6% from 20 March 2020 until 31 December 2023. Between 1 January 2023 and 31 December 2023, the reduced rate of 6% applies to admission to cinemas; transport of passengers and their accompanying luggage are subject to a reduced rate of 13% from 1 June 2020 to 31 December 2023. In the same period, the reduced rate of 13% applies to services provided by restaurants, coffee shops and similar businesses, excluding nightclubs, and with the exception of the disposal of alcoholic beverages. In the same period, the reduced rate 13% applies to the supply of non-alcoholic beverages.  A reduced rate of 13% also applies to zoo tickets with effect from 5 February 2021 until 31 December 2023 and to services provided by gyms and dance schools (as long as those are not exempt) from 1 October 2021 until 31 December 2023. Α temporary VAT rate reduction is also applied on defibrillators (6%) and import of works of art (13%) and delivery of objects of artistic value  provided by their creator or successors (13%) until 31 December 2023.</t>
+      <t xml:space="preserve"> A temporary reduced VAT rate of 0% applied to basic foodstuff from 1 February 2022 to 31 
+March 2024 (see country note to Annex Table 2.A.2.) </t>
     </r>
-  </si>
-  <si>
-    <t>1.0/10.0</t>
-  </si>
-  <si>
-    <t>5.0/10</t>
   </si>
   <si>
     <r>
@@ -395,7 +644,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Slovak Republic</t>
+      <t>Portugal</t>
     </r>
     <r>
       <rPr>
@@ -404,7 +653,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>*. From 1 January 2023 a new reduced VAT rate of 5% was introduced for supplies of state-supported rental housing as part of the state's social policy.</t>
+      <t xml:space="preserve">*.  In the Islands of Azores, the standard VAT rate is 16% and the reduced rates are 4% and 
+9%. In the Islands of Madeira, the standard rate is 22% and reduced rates are 5% and 12%.  </t>
     </r>
   </si>
   <si>
@@ -416,7 +666,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>France</t>
+      <t>Spain</t>
     </r>
     <r>
       <rPr>
@@ -425,163 +675,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">*. Rates of 0.9%; 2.1%; 10.0%; 13.0% and 20.0% apply in Corsica; rates of 1.05%; 1.75%; 2.1% and 8.5% apply to overseas departments (DOM) excluding French Guyana and Mayotte. Temporary reduced rates related to the Covid-19 pandemic: a rate of 5.5% apply to imports of certain goods needed to combat the Covid-19 from 1 January 2022 to 31 December 2023. A rate of 5.5 % also applies to supplies of certain goods needed to combat the Covid-19 from 1 March 2020 until 31 December 2023. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">VAT rates changes or adoption of new VAT rates introduced after 1 September 2023 are mentioned in the Country notes to this table. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Canada</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. The following provinces have harmonised their provincial sales taxes with the federal Goods and Services Tax and therefore levy a GST/HST at the following rates: New Brunswick, Newfoundland and Labrador, Nova Scotia, Prince Edward Island: 15%; and Ontario: 13%. Québec applies GST at a rate of 5% and Québec Sales Tax at a rate of 9.975% (applied on the same tax base as the GST). With the exception of Canada’s territories (Yukon, Northwest Territories and Nunavut) and the province of Alberta, other Canadian provinces apply a provincial sales tax to certain goods and services in addition to the federal GST. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Colombia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.The rate of 0% applies to hygiene products destined to final consumers in the department of Amazonas. The leases of commercial property were subject to a VAT rate of 0% from 1 June until 31 July 2020. The VAT rate for airline tickets and related services was reduced from 19% to 5% from 15 April 2020 until 31 December 2021. This measure was extended until 31 December 2022. The provision of hotel and tourism services were excluded from VAT from 4 June until 31 December 2020. Afterwards, these services subject to a VAT rate of 0%, from 1 January 2021 to 31 December 2022. Restaurants operating as franchises were excluded from VAT from 4 June 2020 until 31 December 2021</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Lithuania</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>*. A temporary reduced rate of 9% applies to restaurants services from 1 July 2021 to 31 December 2023.</t>
-    </r>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Switzerland.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> The standard and reduced VAT rates will increase from respectively 7.7%, 2.5% and 3.7% to 8.1%, 2.6% and 3.8%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Germany</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>*. The standard VAT rate was reduced from 19% to 16% and the reduced VAT rate from 7% to 5% from 1 July to 31 December 2020. Restaurant and catering services (except beverages) were subject to the reduced rate of 5% from 1 July 2020 until 31 December 2020 and 7% from 1 January 2021 until 31 December 2023.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ireland</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>*. The standard VAT rate was reduced from 23% to 21%, with effect from 1 September 2020 until 28 February 2021. A temporary VAT rate reduction for tourism and hospitality sectors apply from 13.5% to 9%, from 1 November 2020 to 1 September 2023. Temporary VAT rate reduction on energy products and supplies from 13.5% to 9%, from 1 May 2022 to 31 October 2023.</t>
-    </r>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sweden*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. From 1 april 2023 the reduced rate 6 % that applied on repair of bikes, shoes, leather goods and household linen was raised to the reduced rate of 12%.</t>
+      <t xml:space="preserve">*. Rates of 0.0%, 3.0%; 5.0%,7.0%, 9.50%; 15.0% and 20.0% apply in the Canary Islands. Rates 
+of 0.5%; 1.0%, 2.0%; 3.0; 4.0%; 5.0%; 6.0%; 8.0%; 9.0% and 10% apply in either Ceuta and Melilla. </t>
     </r>
   </si>
   <si>
@@ -602,29 +697,21 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>. Standard VAT and reduced VAT rate have been increased as of 10 July 2023, respectively from 18% to 20% and from 8% to 10%. There is no change made on the reduced VAT rate of 1%. A temporary rate of 0% applies to supplies of substances to be used in the production of goods to be exported under the inward processing and temporary admission regime until 31 December 2025; to the delivery of goods and provision of services to international organisations operating in Türkiye within the framework of host state agreements or other agreements to which it is a party, to construction works for investments with a minimum fixed investment amount of TRY 500 million within the scope of investment incentive certificates, to delivery of goods and services related to construction works within the scope of the certificate to taxpayers holding investment incentive certificates for the manufacturing industry and tourism until 31 December 2025, to deliveries of new machinery and equipment to be used exclusively in the manufacturing industry to value-added taxpayers carrying industry registration certificate until 31 December 2024, to engineering services provided to taxpayers who manufacture electric motor vehicles in Türkiye as a result of their R&amp;D activities in Türkiye to develop technologies that will eliminate greenhouse gas emissions until 31 December 2023.</t>
+      <t xml:space="preserve">. A temporary rate of 0% applies to supplies of substances to be used in the production of goods 
+to be exported under the inward processing and temporary admission regime until 31 December 2025; 
+to the delivery of goods and provision of services to international organisations operating in Türkiye 
+within the framework of host state agreements or other agreements to which it is a party; to construction 
+works for investments with a minimum fixed investment amount of TRY 500 million within the scope of 
+investment incentive certificates; to delivery of goods and services related to construction works within 
+the scope of the certificate to taxpayers holding investment incentive certificates for the manufacturing 
+industry and tourism until 31 December 2025; to deliveries of new machinery and equipment to be used 
+exclusively in the manufacturing industry to value-added taxpayers carrying industry registration 
+certificate until 31 December 2024; to engineering services provided to taxpayers who manufacture 
+electric motor vehicles in Türkiye as a result of their R&amp;D activities in Türkiye to develop technologies 
+that will eliminate greenhouse gas emissions until 31 December 2023; and to deliveries and services 
+provided to professional organisations that are public institutions for the construction of houses to be 
+donated to disaster victims due to the earthquakes occurred on 6 February 2023. </t>
     </r>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Poland</t>
   </si>
   <si>
     <r>
@@ -635,7 +722,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Portugal</t>
+      <t>*Member States of the European Union</t>
     </r>
     <r>
       <rPr>
@@ -644,58 +731,29 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">*. In the Islands of Azores, the standard VAT rate is 16% and the reduced rates are 4% and 9%. In the Islands of Madeira, the standard rate is 22% and reduced rates are 5% and 12%.  </t>
+      <t xml:space="preserve"> are subject to common VAT rules, including regarding the 
+application of reduced VAT rates. </t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="9"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Spain</t>
+      <t>Note</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">*. Rates of 0.0%, 3.0%; 5.0%, 7.0%, 9.50%; 15.0% and 20.0% apply in the Canary Islands. Rates of 0.5%; 1.0%, 2.0%; 3.0; 4.0%; 5.0%; 6.0%; 8.0%; 9.0% and 10% apply in either Ceuta or Melilla. </t>
-    </r>
-  </si>
-  <si>
-    <t>Switzerland*</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Poland*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> From 1 February 2022 to 31 December 2023 the VAT rate has been lowered to 0% for foodstuffs subject to 5% VAT rate. As of 24 February 2022 0% VAT rate has been temporarily introduced (under certain conditions) to donations of any goods and services for purposes related to help victims affected by war in Ukraine, provided by taxable persons to the following entities: the Governmental Strategic Reserves Agency, health care institutions and local/regional authorities. The measure applies until 31 December 2023.</t>
+      <t>: Temporary VAT rate reductions are shown in italics in the country notes above.</t>
     </r>
   </si>
 </sst>
@@ -706,7 +764,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -752,8 +810,32 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -775,6 +857,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -934,6 +1022,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -970,6 +1064,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Andrea Nieder" id="{B994DDF8-FD50-4569-8CB1-C2947F69F28C}" userId="eeed051e0af845b7" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1233,49 +1333,65 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="V12" dT="2025-05-21T10:35:24.17" personId="{B994DDF8-FD50-4569-8CB1-C2947F69F28C}" id="{8295ACC6-A58B-48F1-A5C6-E29DBD2CCBAD}">
+    <text>Ab 2025 - deshalb Abweichung zu OECD 2024</text>
+  </threadedComment>
+  <threadedComment ref="V33" dT="2025-05-21T10:35:40.79" personId="{B994DDF8-FD50-4569-8CB1-C2947F69F28C}" id="{608F8682-E7EB-4EAE-9183-615807906989}">
+    <text xml:space="preserve">Ab 2025 - deshalb Abweichung zu OECD 2024
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="15" width="0" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="8.1328125" customWidth="1"/>
-    <col min="19" max="19" width="4.86328125" customWidth="1"/>
-    <col min="20" max="20" width="10.86328125" customWidth="1"/>
-    <col min="21" max="21" width="15.3984375" customWidth="1"/>
+    <col min="19" max="21" width="4.86328125" customWidth="1"/>
+    <col min="22" max="22" width="10.86328125" customWidth="1"/>
+    <col min="23" max="23" width="15.3984375" customWidth="1"/>
+    <col min="24" max="24" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-    </row>
-    <row r="2" spans="1:21" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+    </row>
+    <row r="2" spans="1:25" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="12">
         <v>2005</v>
       </c>
@@ -1330,14 +1446,26 @@
       <c r="S2" s="12">
         <v>2023</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="12">
+        <v>2024</v>
+      </c>
+      <c r="U2" s="12">
+        <v>2025</v>
+      </c>
+      <c r="V2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="W2" s="16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1395,16 +1523,28 @@
       <c r="S3" s="9">
         <v>10</v>
       </c>
-      <c r="T3" s="13">
+      <c r="T3" s="9">
+        <v>10</v>
+      </c>
+      <c r="U3" s="9">
+        <v>10</v>
+      </c>
+      <c r="V3" s="13">
         <v>0</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="W3" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B4" s="10">
         <v>20</v>
@@ -1460,16 +1600,28 @@
       <c r="S4" s="10">
         <v>20</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="T4" s="10">
+        <v>20</v>
+      </c>
+      <c r="U4" s="10">
+        <v>20</v>
+      </c>
+      <c r="V4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="14">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="W4" s="14">
+        <v>19</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11">
         <v>21</v>
@@ -1525,16 +1677,28 @@
       <c r="S5" s="11">
         <v>21</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="11">
+        <v>21</v>
+      </c>
+      <c r="U5" s="11">
+        <v>21</v>
+      </c>
+      <c r="V5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="U5" s="15" t="s">
+      <c r="W5" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B6" s="10">
         <v>7</v>
@@ -1590,14 +1754,26 @@
       <c r="S6" s="10">
         <v>5</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="10">
+        <v>5</v>
+      </c>
+      <c r="U6" s="10">
+        <v>5</v>
+      </c>
+      <c r="V6" s="14">
         <v>0</v>
       </c>
-      <c r="U6" s="14" t="s">
+      <c r="W6" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1655,16 +1831,28 @@
       <c r="S7" s="11">
         <v>19</v>
       </c>
-      <c r="T7" s="15" t="s">
+      <c r="T7" s="11">
+        <v>19</v>
+      </c>
+      <c r="U7" s="11">
+        <v>19</v>
+      </c>
+      <c r="V7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="15" t="s">
+      <c r="W7" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B8" s="10">
         <v>16</v>
@@ -1720,41 +1908,53 @@
       <c r="S8" s="10">
         <v>19</v>
       </c>
-      <c r="T8" s="14" t="s">
+      <c r="T8" s="10">
+        <v>19</v>
+      </c>
+      <c r="U8" s="10">
+        <v>19</v>
+      </c>
+      <c r="V8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="U8" s="14" t="s">
+      <c r="W8" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
@@ -1773,14 +1973,26 @@
       <c r="S9" s="11">
         <v>13</v>
       </c>
-      <c r="T9" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="U9" s="15"/>
-    </row>
-    <row r="10" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T9" s="11">
+        <v>13</v>
+      </c>
+      <c r="U9" s="11">
+        <v>13</v>
+      </c>
+      <c r="V9" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="W9" s="15"/>
+      <c r="X9" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y9" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B10" s="10">
         <v>19</v>
@@ -1836,16 +2048,28 @@
       <c r="S10" s="10">
         <v>21</v>
       </c>
-      <c r="T10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="U10" s="14" t="s">
+      <c r="T10" s="10">
+        <v>21</v>
+      </c>
+      <c r="U10" s="10">
+        <v>21</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="W10" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B11" s="11">
         <v>25</v>
@@ -1901,16 +2125,28 @@
       <c r="S11" s="11">
         <v>25</v>
       </c>
-      <c r="T11" s="15">
+      <c r="T11" s="11">
+        <v>25</v>
+      </c>
+      <c r="U11" s="11">
+        <v>25</v>
+      </c>
+      <c r="V11" s="15">
         <v>0</v>
       </c>
-      <c r="U11" s="15" t="s">
+      <c r="W11" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B12" s="10">
         <v>18</v>
@@ -1966,16 +2202,28 @@
       <c r="S12" s="10">
         <v>20</v>
       </c>
-      <c r="T12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="U12" s="14" t="s">
+      <c r="T12" s="10">
+        <v>22</v>
+      </c>
+      <c r="U12" s="10">
+        <v>24</v>
+      </c>
+      <c r="V12" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="W12" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X12" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y12" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B13" s="11">
         <v>22</v>
@@ -2031,16 +2279,28 @@
       <c r="S13" s="11">
         <v>24</v>
       </c>
-      <c r="T13" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="U13" s="15" t="s">
+      <c r="T13" s="11">
+        <v>24</v>
+      </c>
+      <c r="U13" s="11">
+        <v>25.5</v>
+      </c>
+      <c r="V13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="W13" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="X13" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B14" s="10">
         <v>19.600000000000001</v>
@@ -2096,16 +2356,28 @@
       <c r="S14" s="10">
         <v>20</v>
       </c>
-      <c r="T14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="U14" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="T14" s="10">
+        <v>20</v>
+      </c>
+      <c r="U14" s="10">
+        <v>20</v>
+      </c>
+      <c r="V14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="W14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="X14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B15" s="11">
         <v>16</v>
@@ -2161,16 +2433,28 @@
       <c r="S15" s="11">
         <v>19</v>
       </c>
-      <c r="T15" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="U15" s="15" t="s">
+      <c r="T15" s="11">
+        <v>19</v>
+      </c>
+      <c r="U15" s="11">
+        <v>19</v>
+      </c>
+      <c r="V15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="W15" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B16" s="10">
         <v>18</v>
@@ -2226,16 +2510,28 @@
       <c r="S16" s="10">
         <v>24</v>
       </c>
-      <c r="T16" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="U16" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="T16" s="10">
+        <v>24</v>
+      </c>
+      <c r="U16" s="10">
+        <v>24</v>
+      </c>
+      <c r="V16" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="W16" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="X16" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y16" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="B17" s="11">
         <v>25</v>
@@ -2291,14 +2587,26 @@
       <c r="S17" s="11">
         <v>27</v>
       </c>
-      <c r="T17" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="U17" s="15" t="s">
+      <c r="T17" s="11">
+        <v>27</v>
+      </c>
+      <c r="U17" s="11">
+        <v>27</v>
+      </c>
+      <c r="V17" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="W17" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X17" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -2356,16 +2664,28 @@
       <c r="S18" s="10">
         <v>24</v>
       </c>
-      <c r="T18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="U18" s="14" t="s">
+      <c r="T18" s="10">
+        <v>24</v>
+      </c>
+      <c r="U18" s="10">
+        <v>24</v>
+      </c>
+      <c r="V18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="W18" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X18" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B19" s="11">
         <v>21</v>
@@ -2421,16 +2741,28 @@
       <c r="S19" s="11">
         <v>23</v>
       </c>
-      <c r="T19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="U19" s="15" t="s">
+      <c r="T19" s="11">
+        <v>23</v>
+      </c>
+      <c r="U19" s="11">
+        <v>23</v>
+      </c>
+      <c r="V19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X19" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y19" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B20" s="10">
         <v>17</v>
@@ -2486,16 +2818,28 @@
       <c r="S20" s="10">
         <v>17</v>
       </c>
-      <c r="T20" s="14">
+      <c r="T20" s="10">
+        <v>17</v>
+      </c>
+      <c r="U20" s="10">
+        <v>18</v>
+      </c>
+      <c r="V20" s="14">
         <v>0</v>
       </c>
-      <c r="U20" s="14">
+      <c r="W20" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B21" s="11">
         <v>20</v>
@@ -2551,16 +2895,28 @@
       <c r="S21" s="11">
         <v>22</v>
       </c>
-      <c r="T21" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="U21" s="15" t="s">
+      <c r="T21" s="11">
+        <v>22</v>
+      </c>
+      <c r="U21" s="11">
+        <v>22</v>
+      </c>
+      <c r="V21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="W21" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X21" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B22" s="10">
         <v>5</v>
@@ -2616,14 +2972,26 @@
       <c r="S22" s="10">
         <v>10</v>
       </c>
-      <c r="T22" s="14">
+      <c r="T22" s="10">
+        <v>10</v>
+      </c>
+      <c r="U22" s="10">
+        <v>10</v>
+      </c>
+      <c r="V22" s="14">
         <v>8</v>
       </c>
-      <c r="U22" s="14" t="s">
+      <c r="W22" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X22" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -2681,16 +3049,28 @@
       <c r="S23" s="11">
         <v>10</v>
       </c>
-      <c r="T23" s="15">
+      <c r="T23" s="11">
+        <v>10</v>
+      </c>
+      <c r="U23" s="11">
+        <v>10</v>
+      </c>
+      <c r="V23" s="15">
         <v>0</v>
       </c>
-      <c r="U23" s="15" t="s">
+      <c r="W23" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B24" s="10">
         <v>18</v>
@@ -2746,16 +3126,28 @@
       <c r="S24" s="10">
         <v>21</v>
       </c>
-      <c r="T24" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="U24" s="14" t="s">
+      <c r="T24" s="10">
+        <v>21</v>
+      </c>
+      <c r="U24" s="10">
+        <v>21</v>
+      </c>
+      <c r="V24" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="W24" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X24" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B25" s="11">
         <v>18</v>
@@ -2811,16 +3203,28 @@
       <c r="S25" s="11">
         <v>21</v>
       </c>
-      <c r="T25" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U25" s="15" t="s">
+      <c r="T25" s="11">
+        <v>21</v>
+      </c>
+      <c r="U25" s="11">
+        <v>21</v>
+      </c>
+      <c r="V25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X25" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B26" s="10">
         <v>15</v>
@@ -2876,16 +3280,28 @@
       <c r="S26" s="10">
         <v>16</v>
       </c>
-      <c r="T26" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="U26" s="14" t="s">
+      <c r="T26" s="10">
+        <v>17</v>
+      </c>
+      <c r="U26" s="10">
+        <v>17</v>
+      </c>
+      <c r="V26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="W26" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X26" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B27" s="11">
         <v>15</v>
@@ -2941,16 +3357,28 @@
       <c r="S27" s="11">
         <v>16</v>
       </c>
-      <c r="T27" s="15">
+      <c r="T27" s="11">
+        <v>16</v>
+      </c>
+      <c r="U27" s="11">
+        <v>16</v>
+      </c>
+      <c r="V27" s="15">
         <v>0</v>
       </c>
-      <c r="U27" s="15">
+      <c r="W27" s="15">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X27" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="B28" s="10">
         <v>19</v>
@@ -3006,14 +3434,26 @@
       <c r="S28" s="10">
         <v>21</v>
       </c>
-      <c r="T28" s="14">
+      <c r="T28" s="10">
+        <v>21</v>
+      </c>
+      <c r="U28" s="10">
+        <v>21</v>
+      </c>
+      <c r="V28" s="14">
         <v>9</v>
       </c>
-      <c r="U28" s="14" t="s">
+      <c r="W28" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X28" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
@@ -3071,16 +3511,28 @@
       <c r="S29" s="11">
         <v>15</v>
       </c>
-      <c r="T29" s="15">
+      <c r="T29" s="11">
+        <v>15</v>
+      </c>
+      <c r="U29" s="11">
+        <v>15</v>
+      </c>
+      <c r="V29" s="15">
         <v>0</v>
       </c>
-      <c r="U29" s="15" t="s">
+      <c r="W29" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X29" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B30" s="10">
         <v>25</v>
@@ -3136,16 +3588,28 @@
       <c r="S30" s="10">
         <v>25</v>
       </c>
-      <c r="T30" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="U30" s="14" t="s">
+      <c r="T30" s="10">
+        <v>25</v>
+      </c>
+      <c r="U30" s="10">
+        <v>25</v>
+      </c>
+      <c r="V30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="W30" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X30" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y30" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B31" s="11">
         <v>22</v>
@@ -3201,16 +3665,28 @@
       <c r="S31" s="11">
         <v>23</v>
       </c>
-      <c r="T31" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="U31" s="15" t="s">
+      <c r="T31" s="11">
+        <v>23</v>
+      </c>
+      <c r="U31" s="11">
+        <v>23</v>
+      </c>
+      <c r="V31" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="W31" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="X31" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B32" s="10">
         <v>19</v>
@@ -3266,16 +3742,28 @@
       <c r="S32" s="10">
         <v>23</v>
       </c>
-      <c r="T32" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="U32" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="T32" s="10">
+        <v>23</v>
+      </c>
+      <c r="U32" s="10">
+        <v>23</v>
+      </c>
+      <c r="V32" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="W32" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="X32" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B33" s="11">
         <v>19</v>
@@ -3331,16 +3819,28 @@
       <c r="S33" s="11">
         <v>20</v>
       </c>
-      <c r="T33" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="U33" s="15" t="s">
+      <c r="T33" s="11">
+        <v>20</v>
+      </c>
+      <c r="U33" s="11">
+        <v>23</v>
+      </c>
+      <c r="V33" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="W33" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X33" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B34" s="10">
         <v>20</v>
@@ -3396,16 +3896,28 @@
       <c r="S34" s="10">
         <v>22</v>
       </c>
-      <c r="T34" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="U34" s="14" t="s">
+      <c r="T34" s="10">
+        <v>22</v>
+      </c>
+      <c r="U34" s="10">
+        <v>22</v>
+      </c>
+      <c r="V34" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="W34" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X34" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B35" s="11">
         <v>16</v>
@@ -3461,16 +3973,28 @@
       <c r="S35" s="11">
         <v>21</v>
       </c>
-      <c r="T35" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="U35" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="T35" s="11">
+        <v>21</v>
+      </c>
+      <c r="U35" s="11">
+        <v>21</v>
+      </c>
+      <c r="V35" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="W35" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="X35" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B36" s="10">
         <v>25</v>
@@ -3526,16 +4050,28 @@
       <c r="S36" s="10">
         <v>25</v>
       </c>
-      <c r="T36" s="14" t="s">
+      <c r="T36" s="10">
+        <v>25</v>
+      </c>
+      <c r="U36" s="10">
+        <v>25</v>
+      </c>
+      <c r="V36" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="U36" s="14" t="s">
+      <c r="W36" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X36" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="B37" s="11">
         <v>7.6</v>
@@ -3591,16 +4127,28 @@
       <c r="S37" s="11">
         <v>7.7</v>
       </c>
-      <c r="T37" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="U37" s="15" t="s">
+      <c r="T37" s="11">
+        <v>8.1</v>
+      </c>
+      <c r="U37" s="11">
+        <v>8.1</v>
+      </c>
+      <c r="V37" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="W37" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X37" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B38" s="10">
         <v>18</v>
@@ -3656,16 +4204,28 @@
       <c r="S38" s="10">
         <v>20</v>
       </c>
-      <c r="T38" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="U38" s="14" t="s">
+      <c r="T38" s="10">
+        <v>20</v>
+      </c>
+      <c r="U38" s="10">
+        <v>20</v>
+      </c>
+      <c r="V38" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="W38" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="B39" s="11">
         <v>17.5</v>
@@ -3721,14 +4281,26 @@
       <c r="S39" s="11">
         <v>20</v>
       </c>
-      <c r="T39" s="15" t="s">
+      <c r="T39" s="11">
+        <v>20</v>
+      </c>
+      <c r="U39" s="11">
+        <v>20</v>
+      </c>
+      <c r="V39" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="U39" s="15" t="s">
+      <c r="W39" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X39" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>7</v>
       </c>
@@ -3782,11 +4354,11 @@
         <v>19.100000000000001</v>
       </c>
       <c r="P40" s="7">
-        <f t="shared" ref="P40:S40" si="4">AVERAGE(P3:P39)</f>
+        <f>AVERAGE(P3:P39)</f>
         <v>19.154054054054054</v>
       </c>
       <c r="Q40" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="Q40:S40" si="4">AVERAGE(Q3:Q39)</f>
         <v>19.154054054054054</v>
       </c>
       <c r="R40" s="7">
@@ -3797,692 +4369,614 @@
         <f t="shared" si="4"/>
         <v>19.181081081081082</v>
       </c>
-      <c r="T40" s="8"/>
-      <c r="U40" s="17"/>
-    </row>
-    <row r="41" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
+      <c r="T40" s="7">
+        <f>AVERAGE(T3:T39)</f>
+        <v>19.272972972972973</v>
+      </c>
+      <c r="U40" s="7">
+        <f>AVERAGE(U3:U39)</f>
+        <v>19.475675675675678</v>
+      </c>
+      <c r="V40" s="8"/>
+      <c r="W40" s="17"/>
+    </row>
+    <row r="41" spans="1:25" ht="17.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A42" s="21" t="s">
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A42" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A43" s="22" t="s">
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A43" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
-    </row>
-    <row r="44" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="19"/>
-    </row>
-    <row r="45" spans="1:21" ht="53.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-    </row>
-    <row r="46" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-    </row>
-    <row r="47" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A48" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="22"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+    </row>
+    <row r="44" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="23"/>
+      <c r="W44" s="23"/>
+    </row>
+    <row r="45" spans="1:25" ht="53.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="23"/>
+      <c r="W45" s="23"/>
+    </row>
+    <row r="46" spans="1:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="23"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="23"/>
+      <c r="W46" s="23"/>
+    </row>
+    <row r="47" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="23"/>
+      <c r="W47" s="23"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A48" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="26"/>
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
-    </row>
-    <row r="50" spans="1:21" ht="68.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="19"/>
-    </row>
-    <row r="51" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
-      <c r="U51" s="19"/>
-    </row>
-    <row r="52" spans="1:21" ht="26.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="19"/>
-      <c r="S52" s="19"/>
-      <c r="T52" s="19"/>
-      <c r="U52" s="19"/>
-    </row>
-    <row r="53" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19"/>
-    </row>
-    <row r="54" spans="1:21" ht="90.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="19"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="19"/>
-      <c r="U54" s="19"/>
-    </row>
-    <row r="55" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19"/>
-    </row>
-    <row r="56" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="22"/>
-      <c r="U56" s="22"/>
-    </row>
-    <row r="57" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-    </row>
-    <row r="58" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="19"/>
-      <c r="T58" s="19"/>
-      <c r="U58" s="19"/>
-    </row>
-    <row r="59" spans="1:21" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
-      <c r="U59" s="19"/>
-    </row>
-    <row r="60" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="25"/>
-      <c r="R60" s="25"/>
-      <c r="S60" s="25"/>
-      <c r="T60" s="25"/>
-      <c r="U60" s="25"/>
-    </row>
-    <row r="61" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="19"/>
-      <c r="S61" s="19"/>
-      <c r="T61" s="19"/>
-      <c r="U61" s="19"/>
-    </row>
-    <row r="62" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19"/>
-      <c r="U62" s="19"/>
-    </row>
-    <row r="63" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="19"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="19"/>
-      <c r="S63" s="19"/>
-      <c r="T63" s="19"/>
-      <c r="U63" s="19"/>
-    </row>
-    <row r="64" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="19"/>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="19"/>
-      <c r="R64" s="19"/>
-      <c r="S64" s="19"/>
-      <c r="T64" s="19"/>
-      <c r="U64" s="19"/>
-    </row>
-    <row r="65" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="19"/>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="19"/>
-      <c r="S65" s="19"/>
-      <c r="T65" s="19"/>
-      <c r="U65" s="19"/>
-    </row>
-    <row r="66" spans="1:21" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="19"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
-      <c r="R66" s="19"/>
-      <c r="S66" s="19"/>
-      <c r="T66" s="19"/>
-      <c r="U66" s="19"/>
-    </row>
-    <row r="67" spans="1:21" ht="86.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="19"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="19"/>
-      <c r="S67" s="19"/>
-      <c r="T67" s="19"/>
-      <c r="U67" s="19"/>
+    <row r="49" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23"/>
+      <c r="W49" s="23"/>
+    </row>
+    <row r="50" spans="1:23" ht="68.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="23"/>
+      <c r="U50" s="23"/>
+      <c r="V50" s="23"/>
+      <c r="W50" s="23"/>
+    </row>
+    <row r="51" spans="1:23" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="23"/>
+      <c r="W51" s="23"/>
+    </row>
+    <row r="52" spans="1:23" ht="26.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="23"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="23"/>
+      <c r="W52" s="23"/>
+    </row>
+    <row r="53" spans="1:23" ht="26.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="23"/>
+      <c r="W53" s="23"/>
+    </row>
+    <row r="54" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="23"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="23"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="23"/>
+      <c r="W54" s="23"/>
+    </row>
+    <row r="55" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="26"/>
+      <c r="R55" s="26"/>
+      <c r="S55" s="26"/>
+      <c r="T55" s="26"/>
+      <c r="U55" s="26"/>
+      <c r="V55" s="26"/>
+      <c r="W55" s="26"/>
+    </row>
+    <row r="56" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="23"/>
+      <c r="S56" s="23"/>
+      <c r="T56" s="23"/>
+      <c r="U56" s="23"/>
+      <c r="V56" s="23"/>
+      <c r="W56" s="23"/>
+    </row>
+    <row r="57" spans="1:23" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="23"/>
+      <c r="Q57" s="23"/>
+      <c r="R57" s="23"/>
+      <c r="S57" s="23"/>
+      <c r="T57" s="23"/>
+      <c r="U57" s="23"/>
+      <c r="V57" s="23"/>
+      <c r="W57" s="23"/>
+    </row>
+    <row r="58" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="29"/>
+      <c r="U58" s="29"/>
+      <c r="V58" s="29"/>
+      <c r="W58" s="29"/>
+    </row>
+    <row r="59" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="23"/>
+      <c r="P59" s="23"/>
+      <c r="Q59" s="23"/>
+      <c r="R59" s="23"/>
+      <c r="S59" s="23"/>
+      <c r="T59" s="23"/>
+      <c r="U59" s="23"/>
+      <c r="V59" s="23"/>
+      <c r="W59" s="23"/>
+    </row>
+    <row r="60" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="23"/>
+      <c r="R60" s="23"/>
+      <c r="S60" s="23"/>
+      <c r="T60" s="23"/>
+      <c r="U60" s="23"/>
+      <c r="V60" s="23"/>
+      <c r="W60" s="23"/>
+    </row>
+    <row r="61" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="23"/>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="23"/>
+      <c r="R61" s="23"/>
+      <c r="S61" s="23"/>
+      <c r="T61" s="23"/>
+      <c r="U61" s="23"/>
+      <c r="V61" s="23"/>
+      <c r="W61" s="23"/>
+    </row>
+    <row r="62" spans="1:23" ht="86.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="23"/>
+      <c r="R62" s="23"/>
+      <c r="S62" s="23"/>
+      <c r="T62" s="23"/>
+      <c r="U62" s="23"/>
+      <c r="V62" s="23"/>
+      <c r="W62" s="23"/>
+    </row>
+    <row r="64" spans="1:23" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A67:U67"/>
-    <mergeCell ref="A62:U62"/>
-    <mergeCell ref="A63:U63"/>
-    <mergeCell ref="A64:U64"/>
-    <mergeCell ref="A66:U66"/>
-    <mergeCell ref="A65:U65"/>
-    <mergeCell ref="A58:U58"/>
-    <mergeCell ref="A59:U59"/>
-    <mergeCell ref="A61:U61"/>
-    <mergeCell ref="A55:U55"/>
-    <mergeCell ref="A56:U56"/>
-    <mergeCell ref="A57:U57"/>
-    <mergeCell ref="A60:U60"/>
-    <mergeCell ref="A53:U53"/>
-    <mergeCell ref="A54:U54"/>
-    <mergeCell ref="A49:U49"/>
-    <mergeCell ref="A52:U52"/>
-    <mergeCell ref="A1:U1"/>
+  <mergeCells count="23">
+    <mergeCell ref="A62:W62"/>
+    <mergeCell ref="A60:W60"/>
+    <mergeCell ref="A61:W61"/>
+    <mergeCell ref="A54:W54"/>
+    <mergeCell ref="A56:W56"/>
+    <mergeCell ref="A57:W57"/>
+    <mergeCell ref="A59:W59"/>
+    <mergeCell ref="A55:W55"/>
+    <mergeCell ref="A58:W58"/>
+    <mergeCell ref="A53:W53"/>
+    <mergeCell ref="A49:W49"/>
+    <mergeCell ref="A52:W52"/>
+    <mergeCell ref="A1:W1"/>
     <mergeCell ref="A42:Q42"/>
     <mergeCell ref="A43:Q43"/>
     <mergeCell ref="A41:Q41"/>
     <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="A44:U44"/>
-    <mergeCell ref="A46:U46"/>
-    <mergeCell ref="A47:U47"/>
-    <mergeCell ref="A50:U50"/>
-    <mergeCell ref="A51:U51"/>
+    <mergeCell ref="A45:W45"/>
+    <mergeCell ref="A44:W44"/>
+    <mergeCell ref="A46:W46"/>
+    <mergeCell ref="A47:W47"/>
+    <mergeCell ref="A50:W50"/>
+    <mergeCell ref="A51:W51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/source_data/oecd_vat_gst_rates_ctt_trends.xlsx
+++ b/source_data/oecd_vat_gst_rates_ctt_trends.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexanderMengden\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\international-tax-competitiveness-index\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78F48C8-5FDF-4C4E-900F-C67C760B66D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CD44B2-8A28-4DE1-969D-148181012E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,36 +30,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={8295ACC6-A58B-48F1-A5C6-E29DBD2CCBAD}</author>
-    <author>tc={608F8682-E7EB-4EAE-9183-615807906989}</author>
-  </authors>
-  <commentList>
-    <comment ref="V12" authorId="0" shapeId="0" xr:uid="{8295ACC6-A58B-48F1-A5C6-E29DBD2CCBAD}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Ab 2025 - deshalb Abweichung zu OECD 2024</t>
-      </text>
-    </comment>
-    <comment ref="V33" authorId="1" shapeId="0" xr:uid="{608F8682-E7EB-4EAE-9183-615807906989}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Ab 2025 - deshalb Abweichung zu OECD 2024
-</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
   <si>
     <t>Australia</t>
   </si>
@@ -274,57 +246,9 @@
     <t xml:space="preserve"> - </t>
   </si>
   <si>
-    <t>PWC</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Standard 22%, Reduced rates 0%, 5%, 9%</t>
-  </si>
-  <si>
-    <t>Reduced rates 18%, 5%, 0%</t>
-  </si>
-  <si>
-    <t>Reduced rates 0%, 9%, 13,5%</t>
-  </si>
-  <si>
-    <t>Standard (2025) 18%</t>
-  </si>
-  <si>
-    <t>Standard 17%</t>
-  </si>
-  <si>
-    <t>Regional rates 22%, 16% &amp; 12%, 9%, 4%</t>
-  </si>
-  <si>
-    <t>Standard (2025) 23% Reduced Rates (2025) 19%, 5%</t>
-  </si>
-  <si>
-    <t>Standard 25.5%, Reduced rates 10%, 14%, 0%</t>
-  </si>
-  <si>
-    <t>reduced rates 13, 6, 4</t>
-  </si>
-  <si>
-    <t>Standard 8,1% Reduced rate 0, 2,6%, 3,8%</t>
-  </si>
-  <si>
-    <t>Reduced rates 0, 12%</t>
-  </si>
-  <si>
-    <t>(2025) Reduced rates 15, 12, 11.11, 0</t>
-  </si>
-  <si>
-    <t>reduced rates 1, 2, 4, 0.5</t>
-  </si>
-  <si>
     <t>0/12.0</t>
   </si>
   <si>
-    <t>(2024) Standard 22%, (2025) Standard 24%, Reduced rates 0%, 13%, 9% (2025)</t>
-  </si>
-  <si>
     <t>0.0/9.0/13.0</t>
   </si>
   <si>
@@ -340,9 +264,6 @@
     <t>0.0/2.6/3.8</t>
   </si>
   <si>
-    <t>Bloomberg</t>
-  </si>
-  <si>
     <t>0/4.0/10.0</t>
   </si>
   <si>
@@ -355,16 +276,7 @@
     <t>0/1.0/2.0/4.0</t>
   </si>
   <si>
-    <t>(31.08.2024) Standard 25.5%, Reduced rates 10%, 14%, 0%</t>
-  </si>
-  <si>
     <t>5.0/12.0</t>
-  </si>
-  <si>
-    <t>Reduced rates  5%, 12%</t>
-  </si>
-  <si>
-    <t>Reduced rates 5%, 12%</t>
   </si>
   <si>
     <t>0.0/12.0/15.0</t>
@@ -764,7 +676,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -811,31 +723,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -857,12 +752,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1022,22 +911,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1046,8 +932,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,9 +953,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Andrea Nieder" id="{B994DDF8-FD50-4569-8CB1-C2947F69F28C}" userId="eeed051e0af845b7" providerId="Windows Live"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1333,24 +1217,12 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="V12" dT="2025-05-21T10:35:24.17" personId="{B994DDF8-FD50-4569-8CB1-C2947F69F28C}" id="{8295ACC6-A58B-48F1-A5C6-E29DBD2CCBAD}">
-    <text>Ab 2025 - deshalb Abweichung zu OECD 2024</text>
-  </threadedComment>
-  <threadedComment ref="V33" dT="2025-05-21T10:35:40.79" personId="{B994DDF8-FD50-4569-8CB1-C2947F69F28C}" id="{608F8682-E7EB-4EAE-9183-615807906989}">
-    <text xml:space="preserve">Ab 2025 - deshalb Abweichung zu OECD 2024
-</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1361,37 +1233,36 @@
     <col min="19" max="21" width="4.86328125" customWidth="1"/>
     <col min="22" max="22" width="10.86328125" customWidth="1"/>
     <col min="23" max="23" width="15.3984375" customWidth="1"/>
-    <col min="24" max="24" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-    </row>
-    <row r="2" spans="1:25" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+    </row>
+    <row r="2" spans="1:23" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="12">
         <v>2005</v>
       </c>
@@ -1458,14 +1329,8 @@
       <c r="W2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="X2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1535,14 +1400,8 @@
       <c r="W3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -1612,14 +1471,8 @@
       <c r="W4" s="14">
         <v>19</v>
       </c>
-      <c r="X4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
@@ -1689,14 +1542,8 @@
       <c r="W5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="X5" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -1766,14 +1613,8 @@
       <c r="W6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="X6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1843,14 +1684,8 @@
       <c r="W7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="X7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
@@ -1920,14 +1755,8 @@
       <c r="W8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="X8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>44</v>
       </c>
@@ -1980,17 +1809,11 @@
         <v>13</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="W9" s="15"/>
-      <c r="X9" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y9" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
@@ -2055,19 +1878,13 @@
         <v>21</v>
       </c>
       <c r="V10" s="14" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="W10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="X10" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
@@ -2137,14 +1954,8 @@
       <c r="W11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="X11" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
@@ -2208,20 +2019,14 @@
       <c r="U12" s="10">
         <v>24</v>
       </c>
-      <c r="V12" s="21" t="s">
-        <v>80</v>
+      <c r="V12" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="W12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="X12" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y12" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
@@ -2291,14 +2096,8 @@
       <c r="W13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="X13" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="22.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:23" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -2368,14 +2167,8 @@
       <c r="W14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="X14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
@@ -2445,14 +2238,8 @@
       <c r="W15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="X15" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -2517,19 +2304,13 @@
         <v>24</v>
       </c>
       <c r="V16" s="14" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="W16" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="X16" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y16" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>56</v>
       </c>
@@ -2594,19 +2375,13 @@
         <v>27</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="W17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="X17" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -2676,14 +2451,8 @@
       <c r="W18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="X18" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
@@ -2753,14 +2522,8 @@
       <c r="W19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="X19" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y19" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -2830,14 +2593,8 @@
       <c r="W20" s="14">
         <v>0</v>
       </c>
-      <c r="X20" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>57</v>
       </c>
@@ -2907,14 +2664,8 @@
       <c r="W21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="X21" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -2984,14 +2735,8 @@
       <c r="W22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="X22" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -3061,14 +2806,8 @@
       <c r="W23" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="X23" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -3133,19 +2872,13 @@
         <v>21</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="W24" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="X24" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
@@ -3215,14 +2948,8 @@
       <c r="W25" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="X25" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
@@ -3292,14 +3019,8 @@
       <c r="W26" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="X26" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
@@ -3369,14 +3090,8 @@
       <c r="W27" s="15">
         <v>8</v>
       </c>
-      <c r="X27" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
@@ -3446,14 +3161,8 @@
       <c r="W28" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="X28" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
@@ -3523,14 +3232,8 @@
       <c r="W29" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="X29" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
@@ -3595,19 +3298,13 @@
         <v>25</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="W30" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="X30" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y30" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
@@ -3677,14 +3374,8 @@
       <c r="W31" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="X31" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
@@ -3752,16 +3443,10 @@
         <v>18</v>
       </c>
       <c r="W32" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="X32" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>39</v>
       </c>
@@ -3825,20 +3510,14 @@
       <c r="U33" s="11">
         <v>23</v>
       </c>
-      <c r="V33" s="21" t="s">
-        <v>83</v>
+      <c r="V33" s="26" t="s">
+        <v>67</v>
       </c>
       <c r="W33" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="X33" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>52</v>
       </c>
@@ -3908,14 +3587,8 @@
       <c r="W34" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="X34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -3980,19 +3653,13 @@
         <v>21</v>
       </c>
       <c r="V35" s="15" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="W35" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="X35" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y35" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
@@ -4062,14 +3729,8 @@
       <c r="W36" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="X36" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>60</v>
       </c>
@@ -4134,19 +3795,13 @@
         <v>8.1</v>
       </c>
       <c r="V37" s="15" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="W37" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="X37" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>45</v>
       </c>
@@ -4216,14 +3871,8 @@
       <c r="W38" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="X38" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>61</v>
       </c>
@@ -4293,14 +3942,8 @@
       <c r="W39" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="X39" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>7</v>
       </c>
@@ -4380,586 +4023,577 @@
       <c r="V40" s="8"/>
       <c r="W40" s="17"/>
     </row>
-    <row r="41" spans="1:25" ht="17.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
+    <row r="41" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A42" s="25" t="s">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A42" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A43" s="26" t="s">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A43" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
     </row>
-    <row r="44" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="23"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="23"/>
-      <c r="W44" s="23"/>
-    </row>
-    <row r="45" spans="1:25" ht="53.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
-      <c r="S45" s="23"/>
-      <c r="T45" s="23"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="23"/>
-      <c r="W45" s="23"/>
-    </row>
-    <row r="46" spans="1:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="23"/>
-      <c r="T46" s="23"/>
-      <c r="U46" s="23"/>
-      <c r="V46" s="23"/>
-      <c r="W46" s="23"/>
-    </row>
-    <row r="47" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="23"/>
-      <c r="W47" s="23"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A48" s="26" t="s">
+    <row r="44" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+    </row>
+    <row r="45" spans="1:23" ht="53.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+    </row>
+    <row r="46" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+    </row>
+    <row r="47" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A48" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="26"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23"/>
-      <c r="S49" s="23"/>
-      <c r="T49" s="23"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="23"/>
-      <c r="W49" s="23"/>
+      <c r="A49" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
     </row>
     <row r="50" spans="1:23" ht="68.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="23"/>
-      <c r="U50" s="23"/>
-      <c r="V50" s="23"/>
-      <c r="W50" s="23"/>
+      <c r="A50" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
     </row>
     <row r="51" spans="1:23" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="23"/>
-      <c r="W51" s="23"/>
+      <c r="A51" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
     </row>
     <row r="52" spans="1:23" ht="26.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="23"/>
-      <c r="W52" s="23"/>
+      <c r="A52" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
     </row>
     <row r="53" spans="1:23" ht="26.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="23"/>
-      <c r="S53" s="23"/>
-      <c r="T53" s="23"/>
-      <c r="U53" s="23"/>
-      <c r="V53" s="23"/>
-      <c r="W53" s="23"/>
+      <c r="A53" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
     </row>
     <row r="54" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="23"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="23"/>
-      <c r="V54" s="23"/>
-      <c r="W54" s="23"/>
+      <c r="A54" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
     </row>
     <row r="55" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="26"/>
-      <c r="Q55" s="26"/>
-      <c r="R55" s="26"/>
-      <c r="S55" s="26"/>
-      <c r="T55" s="26"/>
-      <c r="U55" s="26"/>
-      <c r="V55" s="26"/>
-      <c r="W55" s="26"/>
+      <c r="A55" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="20"/>
     </row>
     <row r="56" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="23"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="23"/>
-      <c r="U56" s="23"/>
-      <c r="V56" s="23"/>
-      <c r="W56" s="23"/>
+      <c r="A56" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
     </row>
     <row r="57" spans="1:23" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="23"/>
-      <c r="R57" s="23"/>
-      <c r="S57" s="23"/>
-      <c r="T57" s="23"/>
-      <c r="U57" s="23"/>
-      <c r="V57" s="23"/>
-      <c r="W57" s="23"/>
+      <c r="A57" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
     </row>
     <row r="58" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="29"/>
-      <c r="R58" s="29"/>
-      <c r="S58" s="29"/>
-      <c r="T58" s="29"/>
-      <c r="U58" s="29"/>
-      <c r="V58" s="29"/>
-      <c r="W58" s="29"/>
+      <c r="A58" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21"/>
+      <c r="W58" s="21"/>
     </row>
     <row r="59" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="23"/>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="23"/>
-      <c r="R59" s="23"/>
-      <c r="S59" s="23"/>
-      <c r="T59" s="23"/>
-      <c r="U59" s="23"/>
-      <c r="V59" s="23"/>
-      <c r="W59" s="23"/>
+      <c r="A59" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
     </row>
     <row r="60" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="23"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="23"/>
-      <c r="S60" s="23"/>
-      <c r="T60" s="23"/>
-      <c r="U60" s="23"/>
-      <c r="V60" s="23"/>
-      <c r="W60" s="23"/>
+      <c r="A60" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="19"/>
+      <c r="W60" s="19"/>
     </row>
     <row r="61" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="23"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="23"/>
-      <c r="R61" s="23"/>
-      <c r="S61" s="23"/>
-      <c r="T61" s="23"/>
-      <c r="U61" s="23"/>
-      <c r="V61" s="23"/>
-      <c r="W61" s="23"/>
+      <c r="A61" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="19"/>
+      <c r="W61" s="19"/>
     </row>
     <row r="62" spans="1:23" ht="86.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="23"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="23"/>
-      <c r="R62" s="23"/>
-      <c r="S62" s="23"/>
-      <c r="T62" s="23"/>
-      <c r="U62" s="23"/>
-      <c r="V62" s="23"/>
-      <c r="W62" s="23"/>
+      <c r="A62" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="19"/>
+      <c r="V62" s="19"/>
+      <c r="W62" s="19"/>
     </row>
     <row r="64" spans="1:23" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A62:W62"/>
-    <mergeCell ref="A60:W60"/>
-    <mergeCell ref="A61:W61"/>
-    <mergeCell ref="A54:W54"/>
-    <mergeCell ref="A56:W56"/>
-    <mergeCell ref="A57:W57"/>
-    <mergeCell ref="A59:W59"/>
-    <mergeCell ref="A55:W55"/>
-    <mergeCell ref="A58:W58"/>
     <mergeCell ref="A53:W53"/>
     <mergeCell ref="A49:W49"/>
     <mergeCell ref="A52:W52"/>
@@ -4974,9 +4608,17 @@
     <mergeCell ref="A47:W47"/>
     <mergeCell ref="A50:W50"/>
     <mergeCell ref="A51:W51"/>
+    <mergeCell ref="A62:W62"/>
+    <mergeCell ref="A60:W60"/>
+    <mergeCell ref="A61:W61"/>
+    <mergeCell ref="A54:W54"/>
+    <mergeCell ref="A56:W56"/>
+    <mergeCell ref="A57:W57"/>
+    <mergeCell ref="A59:W59"/>
+    <mergeCell ref="A55:W55"/>
+    <mergeCell ref="A58:W58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>